--- a/May_2024/may_2024.xlsx
+++ b/May_2024/may_2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27720"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60C21FC-6EFD-4A69-B103-1F9740C64555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A050E6DD-9F09-47BA-B6DC-78F57AE58B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4677,7 +4677,7 @@
     <t>https://www.instagram.com/afcb</t>
   </si>
   <si>
-    <t>https://www.facebook.com/afcbournemouth/</t>
+    <t>https://www.facebook.com/afcb/</t>
   </si>
   <si>
     <t>https://www.tiktok.com/@afcb</t>
@@ -5985,8 +5985,8 @@
   <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16438,6 +16438,9 @@
       <c r="C256">
         <v>937573</v>
       </c>
+      <c r="D256">
+        <v>810000</v>
+      </c>
       <c r="E256">
         <v>1300000</v>
       </c>
@@ -16447,7 +16450,7 @@
       <c r="G256" t="s">
         <v>1547</v>
       </c>
-      <c r="H256" t="s">
+      <c r="H256" s="3" t="s">
         <v>1548</v>
       </c>
       <c r="I256" t="s">
@@ -18490,6 +18493,7 @@
     <hyperlink ref="G82" r:id="rId11" xr:uid="{11508DAA-6A19-4973-BE00-0BAEAA98CC1B}"/>
     <hyperlink ref="J71" r:id="rId12" xr:uid="{C6BC986A-3A52-425D-B265-12DA1AA8B013}"/>
     <hyperlink ref="G64" r:id="rId13" xr:uid="{F8CB8911-E244-456C-A459-520D6176FD02}"/>
+    <hyperlink ref="H256" r:id="rId14" xr:uid="{CAE56DB1-21FA-4058-9C07-0F568AFADF8B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/May_2024/may_2024.xlsx
+++ b/May_2024/may_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/May_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{A050E6DD-9F09-47BA-B6DC-78F57AE58B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B6FEB5A-7B10-406F-8241-976FCE1DAA98}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{A050E6DD-9F09-47BA-B6DC-78F57AE58B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DEF7358-A05F-47E5-8B3B-FD8BEBD370A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1805,9 +1805,6 @@
     <t>https://www.instagram.com/stadebrestois29/</t>
   </si>
   <si>
-    <t>https://www.facebook.com/KERMASPORT</t>
-  </si>
-  <si>
     <t>https://www.tiktok.com/@stadebrestois</t>
   </si>
   <si>
@@ -2861,9 +2858,6 @@
     <t>https://twitter.com/SoundersFC</t>
   </si>
   <si>
-    <t>https://www.youtube.com/channel/UCyXDL0_K0CMfV4ghIaiUg1g</t>
-  </si>
-  <si>
     <t>Sporting Kansas City</t>
   </si>
   <si>
@@ -5631,6 +5625,12 @@
   </si>
   <si>
     <t>https://x.com/u_d_almeria</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCVhbRUhe_hfmgi-UN1gcQzw</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sb29off/</t>
   </si>
 </sst>
 </file>
@@ -6014,8 +6014,8 @@
   <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B65">
         <v>248900</v>
@@ -8652,19 +8652,19 @@
         <v>539512</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1858</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J65" t="s">
         <v>1862</v>
       </c>
-      <c r="H65" t="s">
-        <v>1860</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="K65" t="s">
         <v>1861</v>
-      </c>
-      <c r="J65" t="s">
-        <v>1864</v>
-      </c>
-      <c r="K65" t="s">
-        <v>1863</v>
       </c>
       <c r="L65" t="s">
         <v>393</v>
@@ -9995,9 +9995,6 @@
       <c r="C98">
         <v>352430</v>
       </c>
-      <c r="D98">
-        <v>8800</v>
-      </c>
       <c r="E98">
         <v>493000</v>
       </c>
@@ -10007,17 +10004,17 @@
       <c r="G98" t="s">
         <v>588</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I98" t="s">
         <v>589</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>590</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>591</v>
-      </c>
-      <c r="K98" t="s">
-        <v>592</v>
       </c>
       <c r="L98" t="s">
         <v>508</v>
@@ -10028,7 +10025,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B99">
         <v>10800</v>
@@ -10046,19 +10043,19 @@
         <v>280878</v>
       </c>
       <c r="G99" t="s">
+        <v>593</v>
+      </c>
+      <c r="H99" t="s">
         <v>594</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>595</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>596</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>597</v>
-      </c>
-      <c r="K99" t="s">
-        <v>598</v>
       </c>
       <c r="L99" t="s">
         <v>508</v>
@@ -10069,7 +10066,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B100">
         <v>41500</v>
@@ -10087,19 +10084,19 @@
         <v>470602</v>
       </c>
       <c r="G100" t="s">
+        <v>599</v>
+      </c>
+      <c r="H100" t="s">
         <v>600</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>601</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>602</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>603</v>
-      </c>
-      <c r="K100" t="s">
-        <v>604</v>
       </c>
       <c r="L100" t="s">
         <v>508</v>
@@ -10110,7 +10107,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B101">
         <v>34600</v>
@@ -10128,19 +10125,19 @@
         <v>527554</v>
       </c>
       <c r="G101" t="s">
+        <v>605</v>
+      </c>
+      <c r="H101" t="s">
         <v>606</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>607</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>608</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>609</v>
-      </c>
-      <c r="K101" t="s">
-        <v>610</v>
       </c>
       <c r="L101" t="s">
         <v>508</v>
@@ -10151,7 +10148,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B102">
         <v>29200</v>
@@ -10169,22 +10166,22 @@
         <v>650191</v>
       </c>
       <c r="G102" t="s">
+        <v>611</v>
+      </c>
+      <c r="H102" t="s">
         <v>612</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>613</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>614</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>615</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>616</v>
-      </c>
-      <c r="L102" t="s">
-        <v>617</v>
       </c>
       <c r="M102" t="s">
         <v>20</v>
@@ -10192,7 +10189,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B103">
         <v>144000</v>
@@ -10210,22 +10207,22 @@
         <v>1671253</v>
       </c>
       <c r="G103" t="s">
+        <v>618</v>
+      </c>
+      <c r="H103" t="s">
         <v>619</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>620</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>621</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>622</v>
       </c>
-      <c r="K103" t="s">
-        <v>623</v>
-      </c>
       <c r="L103" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M103" t="s">
         <v>20</v>
@@ -10233,7 +10230,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B104">
         <v>58700</v>
@@ -10251,22 +10248,22 @@
         <v>879905</v>
       </c>
       <c r="G104" t="s">
+        <v>624</v>
+      </c>
+      <c r="H104" t="s">
         <v>625</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>626</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>627</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>628</v>
       </c>
-      <c r="K104" t="s">
-        <v>629</v>
-      </c>
       <c r="L104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M104" t="s">
         <v>20</v>
@@ -10274,7 +10271,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B105">
         <v>106000</v>
@@ -10292,22 +10289,22 @@
         <v>2218366</v>
       </c>
       <c r="G105" t="s">
+        <v>630</v>
+      </c>
+      <c r="H105" t="s">
         <v>631</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>632</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>633</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>634</v>
       </c>
-      <c r="K105" t="s">
-        <v>635</v>
-      </c>
       <c r="L105" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M105" t="s">
         <v>20</v>
@@ -10315,7 +10312,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B106">
         <v>235000</v>
@@ -10333,22 +10330,22 @@
         <v>2610674</v>
       </c>
       <c r="G106" t="s">
+        <v>636</v>
+      </c>
+      <c r="H106" t="s">
         <v>637</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>638</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>639</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>640</v>
       </c>
-      <c r="K106" t="s">
-        <v>641</v>
-      </c>
       <c r="L106" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M106" t="s">
         <v>20</v>
@@ -10356,7 +10353,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B107">
         <v>44600</v>
@@ -10374,22 +10371,22 @@
         <v>1034822</v>
       </c>
       <c r="G107" t="s">
+        <v>642</v>
+      </c>
+      <c r="H107" t="s">
         <v>643</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>644</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>645</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>646</v>
       </c>
-      <c r="K107" t="s">
-        <v>647</v>
-      </c>
       <c r="L107" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M107" t="s">
         <v>20</v>
@@ -10397,7 +10394,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B108">
         <v>31000</v>
@@ -10415,22 +10412,22 @@
         <v>1000995</v>
       </c>
       <c r="G108" t="s">
+        <v>648</v>
+      </c>
+      <c r="H108" t="s">
         <v>649</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>650</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>651</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>652</v>
       </c>
-      <c r="K108" t="s">
-        <v>653</v>
-      </c>
       <c r="L108" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M108" t="s">
         <v>20</v>
@@ -10438,7 +10435,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B109">
         <v>26700</v>
@@ -10456,22 +10453,22 @@
         <v>1160200</v>
       </c>
       <c r="G109" t="s">
+        <v>654</v>
+      </c>
+      <c r="H109" t="s">
         <v>655</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>656</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>657</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>658</v>
       </c>
-      <c r="K109" t="s">
-        <v>659</v>
-      </c>
       <c r="L109" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M109" t="s">
         <v>20</v>
@@ -10479,7 +10476,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B110">
         <v>13000</v>
@@ -10497,22 +10494,22 @@
         <v>622920</v>
       </c>
       <c r="G110" t="s">
+        <v>660</v>
+      </c>
+      <c r="H110" t="s">
         <v>661</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>662</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>663</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>664</v>
       </c>
-      <c r="K110" t="s">
-        <v>665</v>
-      </c>
       <c r="L110" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M110" t="s">
         <v>20</v>
@@ -10520,7 +10517,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B111">
         <v>32400</v>
@@ -10538,22 +10535,22 @@
         <v>1510552</v>
       </c>
       <c r="G111" t="s">
+        <v>666</v>
+      </c>
+      <c r="H111" t="s">
         <v>667</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>668</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>669</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>670</v>
       </c>
-      <c r="K111" t="s">
-        <v>671</v>
-      </c>
       <c r="L111" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M111" t="s">
         <v>20</v>
@@ -10561,7 +10558,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B112">
         <v>11000</v>
@@ -10579,22 +10576,22 @@
         <v>420329</v>
       </c>
       <c r="G112" t="s">
+        <v>672</v>
+      </c>
+      <c r="H112" t="s">
         <v>673</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>674</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>675</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>676</v>
       </c>
-      <c r="K112" t="s">
-        <v>677</v>
-      </c>
       <c r="L112" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M112" t="s">
         <v>20</v>
@@ -10602,7 +10599,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B113">
         <v>78800</v>
@@ -10620,22 +10617,22 @@
         <v>1968589</v>
       </c>
       <c r="G113" t="s">
+        <v>678</v>
+      </c>
+      <c r="H113" t="s">
         <v>679</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>680</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>681</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>682</v>
       </c>
-      <c r="K113" t="s">
-        <v>683</v>
-      </c>
       <c r="L113" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M113" t="s">
         <v>20</v>
@@ -10643,7 +10640,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B114">
         <v>25900</v>
@@ -10661,22 +10658,22 @@
         <v>1132646</v>
       </c>
       <c r="G114" t="s">
+        <v>684</v>
+      </c>
+      <c r="H114" t="s">
         <v>685</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>686</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>687</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>688</v>
       </c>
-      <c r="K114" t="s">
-        <v>689</v>
-      </c>
       <c r="L114" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M114" t="s">
         <v>20</v>
@@ -10684,7 +10681,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B115">
         <v>66500</v>
@@ -10702,22 +10699,22 @@
         <v>1393323</v>
       </c>
       <c r="G115" t="s">
+        <v>690</v>
+      </c>
+      <c r="H115" t="s">
         <v>691</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>692</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>693</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>694</v>
       </c>
-      <c r="K115" t="s">
-        <v>695</v>
-      </c>
       <c r="L115" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M115" t="s">
         <v>20</v>
@@ -10725,7 +10722,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B116">
         <v>294000</v>
@@ -10743,22 +10740,22 @@
         <v>2806811</v>
       </c>
       <c r="G116" t="s">
+        <v>696</v>
+      </c>
+      <c r="H116" t="s">
         <v>697</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>698</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>699</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>700</v>
       </c>
-      <c r="K116" t="s">
-        <v>701</v>
-      </c>
       <c r="L116" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M116" t="s">
         <v>20</v>
@@ -10766,7 +10763,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B117">
         <v>39300</v>
@@ -10784,22 +10781,22 @@
         <v>741355</v>
       </c>
       <c r="G117" t="s">
+        <v>702</v>
+      </c>
+      <c r="H117" t="s">
         <v>703</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>704</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>705</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>706</v>
       </c>
-      <c r="K117" t="s">
-        <v>707</v>
-      </c>
       <c r="L117" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M117" t="s">
         <v>20</v>
@@ -10807,7 +10804,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B118">
         <v>32500</v>
@@ -10825,22 +10822,22 @@
         <v>712872</v>
       </c>
       <c r="G118" t="s">
+        <v>708</v>
+      </c>
+      <c r="H118" t="s">
         <v>709</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>710</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>711</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>712</v>
       </c>
-      <c r="K118" t="s">
-        <v>713</v>
-      </c>
       <c r="L118" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M118" t="s">
         <v>20</v>
@@ -10848,7 +10845,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B119">
         <v>121000</v>
@@ -10866,22 +10863,22 @@
         <v>1263314</v>
       </c>
       <c r="G119" t="s">
+        <v>714</v>
+      </c>
+      <c r="H119" t="s">
         <v>715</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>716</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>717</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>718</v>
       </c>
-      <c r="K119" t="s">
-        <v>719</v>
-      </c>
       <c r="L119" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M119" t="s">
         <v>20</v>
@@ -10889,7 +10886,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B120">
         <v>162000</v>
@@ -10907,22 +10904,22 @@
         <v>3831730</v>
       </c>
       <c r="G120" t="s">
+        <v>720</v>
+      </c>
+      <c r="H120" t="s">
         <v>721</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>722</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>723</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>724</v>
       </c>
-      <c r="K120" t="s">
-        <v>725</v>
-      </c>
       <c r="L120" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M120" t="s">
         <v>20</v>
@@ -10930,7 +10927,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B121">
         <v>21300</v>
@@ -10948,22 +10945,22 @@
         <v>605359</v>
       </c>
       <c r="G121" t="s">
+        <v>726</v>
+      </c>
+      <c r="H121" t="s">
         <v>727</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>728</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>729</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>730</v>
       </c>
-      <c r="K121" t="s">
-        <v>731</v>
-      </c>
       <c r="L121" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M121" t="s">
         <v>20</v>
@@ -10971,7 +10968,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B122">
         <v>65700</v>
@@ -10989,22 +10986,22 @@
         <v>2133281</v>
       </c>
       <c r="G122" t="s">
+        <v>732</v>
+      </c>
+      <c r="H122" t="s">
         <v>733</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>734</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>735</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>736</v>
       </c>
-      <c r="K122" t="s">
-        <v>737</v>
-      </c>
       <c r="L122" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M122" t="s">
         <v>20</v>
@@ -11012,7 +11009,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B123">
         <v>30900</v>
@@ -11030,22 +11027,22 @@
         <v>824648</v>
       </c>
       <c r="G123" t="s">
+        <v>738</v>
+      </c>
+      <c r="H123" t="s">
         <v>739</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>740</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>741</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>742</v>
       </c>
-      <c r="K123" t="s">
-        <v>743</v>
-      </c>
       <c r="L123" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M123" t="s">
         <v>20</v>
@@ -11053,7 +11050,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B124">
         <v>122000</v>
@@ -11071,22 +11068,22 @@
         <v>685439</v>
       </c>
       <c r="G124" t="s">
+        <v>744</v>
+      </c>
+      <c r="H124" t="s">
         <v>745</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>746</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>747</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>748</v>
       </c>
-      <c r="K124" t="s">
-        <v>749</v>
-      </c>
       <c r="L124" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M124" t="s">
         <v>20</v>
@@ -11094,7 +11091,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B125">
         <v>117000</v>
@@ -11112,22 +11109,22 @@
         <v>1763385</v>
       </c>
       <c r="G125" t="s">
+        <v>750</v>
+      </c>
+      <c r="H125" t="s">
         <v>751</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>752</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>753</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>754</v>
       </c>
-      <c r="K125" t="s">
-        <v>755</v>
-      </c>
       <c r="L125" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M125" t="s">
         <v>20</v>
@@ -11135,7 +11132,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B126">
         <v>53800</v>
@@ -11153,22 +11150,22 @@
         <v>725948</v>
       </c>
       <c r="G126" t="s">
+        <v>756</v>
+      </c>
+      <c r="H126" t="s">
         <v>757</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>758</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>759</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>760</v>
       </c>
-      <c r="K126" t="s">
-        <v>761</v>
-      </c>
       <c r="L126" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M126" t="s">
         <v>20</v>
@@ -11176,7 +11173,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B127">
         <v>79300</v>
@@ -11194,22 +11191,22 @@
         <v>1442608</v>
       </c>
       <c r="G127" t="s">
+        <v>762</v>
+      </c>
+      <c r="H127" t="s">
         <v>763</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>764</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>765</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>766</v>
       </c>
-      <c r="K127" t="s">
-        <v>767</v>
-      </c>
       <c r="L127" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M127" t="s">
         <v>20</v>
@@ -11217,7 +11214,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B128">
         <v>21400</v>
@@ -11235,22 +11232,22 @@
         <v>690425</v>
       </c>
       <c r="G128" t="s">
+        <v>768</v>
+      </c>
+      <c r="H128" t="s">
         <v>769</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>770</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>771</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>772</v>
       </c>
-      <c r="K128" t="s">
-        <v>773</v>
-      </c>
       <c r="L128" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M128" t="s">
         <v>20</v>
@@ -11258,7 +11255,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B129">
         <v>40200</v>
@@ -11276,22 +11273,22 @@
         <v>1503399</v>
       </c>
       <c r="G129" t="s">
+        <v>774</v>
+      </c>
+      <c r="H129" t="s">
         <v>775</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>776</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>777</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>778</v>
       </c>
-      <c r="K129" t="s">
-        <v>779</v>
-      </c>
       <c r="L129" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M129" t="s">
         <v>20</v>
@@ -11299,7 +11296,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B130">
         <v>65300</v>
@@ -11317,22 +11314,22 @@
         <v>2442641</v>
       </c>
       <c r="G130" t="s">
+        <v>780</v>
+      </c>
+      <c r="H130" t="s">
         <v>781</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>782</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>783</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>784</v>
       </c>
-      <c r="K130" t="s">
-        <v>785</v>
-      </c>
       <c r="L130" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M130" t="s">
         <v>20</v>
@@ -11340,7 +11337,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B131">
         <v>16200</v>
@@ -11355,19 +11352,19 @@
         <v>809957</v>
       </c>
       <c r="G131" t="s">
+        <v>786</v>
+      </c>
+      <c r="H131" t="s">
         <v>787</v>
       </c>
-      <c r="H131" t="s">
+      <c r="J131" t="s">
         <v>788</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>789</v>
       </c>
-      <c r="K131" t="s">
-        <v>790</v>
-      </c>
       <c r="L131" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M131" t="s">
         <v>20</v>
@@ -11375,7 +11372,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B132">
         <v>63900</v>
@@ -11393,22 +11390,22 @@
         <v>993346</v>
       </c>
       <c r="G132" t="s">
+        <v>791</v>
+      </c>
+      <c r="H132" t="s">
         <v>792</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>793</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>794</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>795</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>796</v>
-      </c>
-      <c r="L132" t="s">
-        <v>797</v>
       </c>
       <c r="M132" t="s">
         <v>20</v>
@@ -11416,7 +11413,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B133">
         <v>10100</v>
@@ -11434,22 +11431,22 @@
         <v>92352</v>
       </c>
       <c r="G133" t="s">
+        <v>798</v>
+      </c>
+      <c r="H133" t="s">
         <v>799</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>800</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>801</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>802</v>
       </c>
-      <c r="K133" t="s">
-        <v>803</v>
-      </c>
       <c r="L133" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M133" t="s">
         <v>20</v>
@@ -11457,7 +11454,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B134">
         <v>12500</v>
@@ -11475,22 +11472,22 @@
         <v>97785</v>
       </c>
       <c r="G134" t="s">
+        <v>804</v>
+      </c>
+      <c r="H134" t="s">
         <v>805</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>806</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>807</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>808</v>
       </c>
-      <c r="K134" t="s">
-        <v>809</v>
-      </c>
       <c r="L134" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M134" t="s">
         <v>20</v>
@@ -11498,7 +11495,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B135">
         <v>17100</v>
@@ -11516,22 +11513,22 @@
         <v>184679</v>
       </c>
       <c r="G135" t="s">
+        <v>810</v>
+      </c>
+      <c r="H135" t="s">
         <v>811</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>812</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>813</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>814</v>
       </c>
-      <c r="K135" t="s">
-        <v>815</v>
-      </c>
       <c r="L135" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M135" t="s">
         <v>20</v>
@@ -11539,7 +11536,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B136">
         <v>10600</v>
@@ -11557,22 +11554,22 @@
         <v>125034</v>
       </c>
       <c r="G136" t="s">
+        <v>816</v>
+      </c>
+      <c r="H136" t="s">
         <v>817</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>818</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>819</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
         <v>820</v>
       </c>
-      <c r="K136" t="s">
-        <v>821</v>
-      </c>
       <c r="L136" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M136" t="s">
         <v>20</v>
@@ -11580,7 +11577,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B137">
         <v>15400</v>
@@ -11598,22 +11595,22 @@
         <v>211287</v>
       </c>
       <c r="G137" t="s">
+        <v>822</v>
+      </c>
+      <c r="H137" t="s">
         <v>823</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>824</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>825</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>826</v>
       </c>
-      <c r="K137" t="s">
-        <v>827</v>
-      </c>
       <c r="L137" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M137" t="s">
         <v>20</v>
@@ -11621,7 +11618,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B138">
         <v>26700</v>
@@ -11639,22 +11636,22 @@
         <v>178891</v>
       </c>
       <c r="G138" t="s">
+        <v>828</v>
+      </c>
+      <c r="H138" t="s">
         <v>829</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>830</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>831</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>832</v>
       </c>
-      <c r="K138" t="s">
-        <v>833</v>
-      </c>
       <c r="L138" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M138" t="s">
         <v>20</v>
@@ -11662,7 +11659,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B139">
         <v>13200</v>
@@ -11680,22 +11677,22 @@
         <v>142003</v>
       </c>
       <c r="G139" t="s">
+        <v>834</v>
+      </c>
+      <c r="H139" t="s">
         <v>835</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>836</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>837</v>
       </c>
-      <c r="J139" t="s">
+      <c r="K139" t="s">
         <v>838</v>
       </c>
-      <c r="K139" t="s">
-        <v>839</v>
-      </c>
       <c r="L139" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M139" t="s">
         <v>20</v>
@@ -11703,7 +11700,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B140">
         <v>51100</v>
@@ -11721,22 +11718,22 @@
         <v>198156</v>
       </c>
       <c r="G140" t="s">
+        <v>840</v>
+      </c>
+      <c r="H140" t="s">
         <v>841</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>842</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>843</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
         <v>844</v>
       </c>
-      <c r="K140" t="s">
-        <v>845</v>
-      </c>
       <c r="L140" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M140" t="s">
         <v>20</v>
@@ -11744,7 +11741,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B141">
         <v>19500</v>
@@ -11762,22 +11759,22 @@
         <v>418759</v>
       </c>
       <c r="G141" t="s">
+        <v>846</v>
+      </c>
+      <c r="H141" t="s">
         <v>847</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>848</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>849</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>850</v>
       </c>
-      <c r="K141" t="s">
-        <v>851</v>
-      </c>
       <c r="L141" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M141" t="s">
         <v>20</v>
@@ -11785,7 +11782,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B142">
         <v>255000</v>
@@ -11803,22 +11800,22 @@
         <v>1246379</v>
       </c>
       <c r="G142" t="s">
+        <v>852</v>
+      </c>
+      <c r="H142" t="s">
         <v>853</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>854</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>855</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>856</v>
       </c>
-      <c r="K142" t="s">
-        <v>857</v>
-      </c>
       <c r="L142" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M142" t="s">
         <v>20</v>
@@ -11826,7 +11823,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B143">
         <v>119000</v>
@@ -11844,22 +11841,22 @@
         <v>537421</v>
       </c>
       <c r="G143" t="s">
+        <v>858</v>
+      </c>
+      <c r="H143" t="s">
         <v>859</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>860</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>861</v>
       </c>
-      <c r="J143" t="s">
+      <c r="K143" t="s">
         <v>862</v>
       </c>
-      <c r="K143" t="s">
-        <v>863</v>
-      </c>
       <c r="L143" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M143" t="s">
         <v>20</v>
@@ -11867,7 +11864,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B144">
         <v>87300</v>
@@ -11885,22 +11882,22 @@
         <v>322978</v>
       </c>
       <c r="G144" t="s">
+        <v>864</v>
+      </c>
+      <c r="H144" t="s">
         <v>865</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>866</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>867</v>
       </c>
-      <c r="J144" t="s">
+      <c r="K144" t="s">
         <v>868</v>
       </c>
-      <c r="K144" t="s">
-        <v>869</v>
-      </c>
       <c r="L144" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M144" t="s">
         <v>20</v>
@@ -11908,7 +11905,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B145">
         <v>19100</v>
@@ -11926,22 +11923,22 @@
         <v>174878</v>
       </c>
       <c r="G145" t="s">
+        <v>870</v>
+      </c>
+      <c r="H145" t="s">
         <v>871</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>872</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>873</v>
       </c>
-      <c r="J145" t="s">
+      <c r="K145" t="s">
         <v>874</v>
       </c>
-      <c r="K145" t="s">
-        <v>875</v>
-      </c>
       <c r="L145" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M145" t="s">
         <v>20</v>
@@ -11949,7 +11946,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B146">
         <v>27900</v>
@@ -11967,22 +11964,22 @@
         <v>352594</v>
       </c>
       <c r="G146" t="s">
+        <v>876</v>
+      </c>
+      <c r="H146" t="s">
         <v>877</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>878</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>879</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
         <v>880</v>
       </c>
-      <c r="K146" t="s">
-        <v>881</v>
-      </c>
       <c r="L146" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M146" t="s">
         <v>20</v>
@@ -11990,7 +11987,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B147">
         <v>8970</v>
@@ -12008,22 +12005,22 @@
         <v>86333</v>
       </c>
       <c r="G147" t="s">
+        <v>882</v>
+      </c>
+      <c r="H147" t="s">
         <v>883</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>884</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>885</v>
       </c>
-      <c r="J147" t="s">
+      <c r="K147" t="s">
         <v>886</v>
       </c>
-      <c r="K147" t="s">
-        <v>887</v>
-      </c>
       <c r="L147" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M147" t="s">
         <v>20</v>
@@ -12031,7 +12028,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B148">
         <v>15900</v>
@@ -12049,22 +12046,22 @@
         <v>136718</v>
       </c>
       <c r="G148" t="s">
+        <v>888</v>
+      </c>
+      <c r="H148" t="s">
         <v>889</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>890</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>891</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>892</v>
       </c>
-      <c r="K148" t="s">
-        <v>893</v>
-      </c>
       <c r="L148" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M148" t="s">
         <v>20</v>
@@ -12072,7 +12069,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B149">
         <v>83300</v>
@@ -12090,22 +12087,22 @@
         <v>395993</v>
       </c>
       <c r="G149" t="s">
+        <v>894</v>
+      </c>
+      <c r="H149" t="s">
         <v>895</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>896</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>897</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>898</v>
       </c>
-      <c r="K149" t="s">
-        <v>899</v>
-      </c>
       <c r="L149" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M149" t="s">
         <v>20</v>
@@ -12113,7 +12110,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B150">
         <v>27800</v>
@@ -12131,22 +12128,22 @@
         <v>233717</v>
       </c>
       <c r="G150" t="s">
+        <v>900</v>
+      </c>
+      <c r="H150" t="s">
         <v>901</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>902</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>903</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
         <v>904</v>
       </c>
-      <c r="K150" t="s">
-        <v>905</v>
-      </c>
       <c r="L150" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M150" t="s">
         <v>20</v>
@@ -12154,7 +12151,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B151">
         <v>20300</v>
@@ -12172,22 +12169,22 @@
         <v>486175</v>
       </c>
       <c r="G151" t="s">
+        <v>906</v>
+      </c>
+      <c r="H151" t="s">
         <v>907</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>908</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>909</v>
       </c>
-      <c r="J151" t="s">
+      <c r="K151" t="s">
         <v>910</v>
       </c>
-      <c r="K151" t="s">
-        <v>911</v>
-      </c>
       <c r="L151" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M151" t="s">
         <v>20</v>
@@ -12195,7 +12192,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B152">
         <v>17500</v>
@@ -12213,22 +12210,22 @@
         <v>188138</v>
       </c>
       <c r="G152" t="s">
+        <v>912</v>
+      </c>
+      <c r="H152" t="s">
         <v>913</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>914</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>915</v>
       </c>
-      <c r="J152" t="s">
+      <c r="K152" t="s">
         <v>916</v>
       </c>
-      <c r="K152" t="s">
-        <v>917</v>
-      </c>
       <c r="L152" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M152" t="s">
         <v>20</v>
@@ -12236,7 +12233,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B153">
         <v>23000</v>
@@ -12254,22 +12251,22 @@
         <v>350759</v>
       </c>
       <c r="G153" t="s">
+        <v>918</v>
+      </c>
+      <c r="H153" t="s">
         <v>919</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>920</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>921</v>
       </c>
-      <c r="J153" t="s">
+      <c r="K153" t="s">
         <v>922</v>
       </c>
-      <c r="K153" t="s">
-        <v>923</v>
-      </c>
       <c r="L153" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M153" t="s">
         <v>20</v>
@@ -12277,7 +12274,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B154">
         <v>16700</v>
@@ -12295,22 +12292,22 @@
         <v>170940</v>
       </c>
       <c r="G154" t="s">
+        <v>924</v>
+      </c>
+      <c r="H154" t="s">
         <v>925</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>926</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>927</v>
       </c>
-      <c r="J154" t="s">
+      <c r="K154" t="s">
         <v>928</v>
       </c>
-      <c r="K154" t="s">
-        <v>929</v>
-      </c>
       <c r="L154" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M154" t="s">
         <v>20</v>
@@ -12318,7 +12315,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B155">
         <v>16600</v>
@@ -12336,22 +12333,22 @@
         <v>278071</v>
       </c>
       <c r="G155" t="s">
+        <v>930</v>
+      </c>
+      <c r="H155" t="s">
         <v>931</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>932</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>933</v>
       </c>
-      <c r="J155" t="s">
+      <c r="K155" t="s">
         <v>934</v>
       </c>
-      <c r="K155" t="s">
-        <v>935</v>
-      </c>
       <c r="L155" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M155" t="s">
         <v>20</v>
@@ -12359,10 +12356,10 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B156">
-        <v>397</v>
+        <v>57000</v>
       </c>
       <c r="C156">
         <v>380915</v>
@@ -12377,22 +12374,22 @@
         <v>571270</v>
       </c>
       <c r="G156" t="s">
+        <v>936</v>
+      </c>
+      <c r="H156" t="s">
         <v>937</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>938</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>939</v>
       </c>
-      <c r="J156" t="s">
-        <v>940</v>
-      </c>
       <c r="K156" t="s">
-        <v>941</v>
+        <v>1863</v>
       </c>
       <c r="L156" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M156" t="s">
         <v>20</v>
@@ -12400,7 +12397,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B157">
         <v>25100</v>
@@ -12418,22 +12415,22 @@
         <v>394872</v>
       </c>
       <c r="G157" t="s">
+        <v>941</v>
+      </c>
+      <c r="H157" t="s">
+        <v>942</v>
+      </c>
+      <c r="I157" t="s">
         <v>943</v>
       </c>
-      <c r="H157" t="s">
+      <c r="J157" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="I157" t="s">
+      <c r="K157" t="s">
         <v>945</v>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="K157" t="s">
-        <v>947</v>
-      </c>
       <c r="L157" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M157" t="s">
         <v>20</v>
@@ -12441,7 +12438,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B158">
         <v>13400</v>
@@ -12459,22 +12456,22 @@
         <v>122673</v>
       </c>
       <c r="G158" t="s">
+        <v>947</v>
+      </c>
+      <c r="H158" t="s">
+        <v>948</v>
+      </c>
+      <c r="I158" t="s">
         <v>949</v>
       </c>
-      <c r="H158" t="s">
+      <c r="J158" t="s">
         <v>950</v>
       </c>
-      <c r="I158" t="s">
+      <c r="K158" t="s">
         <v>951</v>
       </c>
-      <c r="J158" t="s">
-        <v>952</v>
-      </c>
-      <c r="K158" t="s">
-        <v>953</v>
-      </c>
       <c r="L158" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M158" t="s">
         <v>20</v>
@@ -12482,7 +12479,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B159">
         <v>38000</v>
@@ -12500,22 +12497,22 @@
         <v>424104</v>
       </c>
       <c r="G159" t="s">
+        <v>953</v>
+      </c>
+      <c r="H159" t="s">
+        <v>954</v>
+      </c>
+      <c r="I159" t="s">
         <v>955</v>
       </c>
-      <c r="H159" t="s">
+      <c r="J159" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="I159" t="s">
+      <c r="K159" t="s">
         <v>957</v>
       </c>
-      <c r="J159" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="K159" t="s">
-        <v>959</v>
-      </c>
       <c r="L159" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M159" t="s">
         <v>20</v>
@@ -12523,7 +12520,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B160">
         <v>41400</v>
@@ -12541,22 +12538,22 @@
         <v>330420</v>
       </c>
       <c r="G160" t="s">
+        <v>959</v>
+      </c>
+      <c r="H160" t="s">
+        <v>960</v>
+      </c>
+      <c r="I160" t="s">
         <v>961</v>
       </c>
-      <c r="H160" t="s">
+      <c r="J160" t="s">
         <v>962</v>
       </c>
-      <c r="I160" t="s">
+      <c r="K160" t="s">
         <v>963</v>
       </c>
-      <c r="J160" t="s">
-        <v>964</v>
-      </c>
-      <c r="K160" t="s">
-        <v>965</v>
-      </c>
       <c r="L160" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M160" t="s">
         <v>20</v>
@@ -12564,7 +12561,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B161">
         <v>72000</v>
@@ -12582,22 +12579,22 @@
         <v>1589096</v>
       </c>
       <c r="G161" t="s">
+        <v>965</v>
+      </c>
+      <c r="H161" t="s">
+        <v>966</v>
+      </c>
+      <c r="I161" t="s">
         <v>967</v>
       </c>
-      <c r="H161" t="s">
+      <c r="J161" t="s">
         <v>968</v>
       </c>
-      <c r="I161" t="s">
+      <c r="K161" t="s">
         <v>969</v>
       </c>
-      <c r="J161" t="s">
+      <c r="L161" t="s">
         <v>970</v>
-      </c>
-      <c r="K161" t="s">
-        <v>971</v>
-      </c>
-      <c r="L161" t="s">
-        <v>972</v>
       </c>
       <c r="M161" t="s">
         <v>20</v>
@@ -12605,7 +12602,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B162">
         <v>171000</v>
@@ -12623,22 +12620,22 @@
         <v>4205931</v>
       </c>
       <c r="G162" t="s">
+        <v>972</v>
+      </c>
+      <c r="H162" t="s">
+        <v>973</v>
+      </c>
+      <c r="I162" t="s">
         <v>974</v>
       </c>
-      <c r="H162" t="s">
+      <c r="J162" t="s">
         <v>975</v>
       </c>
-      <c r="I162" t="s">
+      <c r="K162" t="s">
         <v>976</v>
       </c>
-      <c r="J162" t="s">
-        <v>977</v>
-      </c>
-      <c r="K162" t="s">
-        <v>978</v>
-      </c>
       <c r="L162" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M162" t="s">
         <v>20</v>
@@ -12646,7 +12643,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B163">
         <v>26900</v>
@@ -12664,22 +12661,22 @@
         <v>1217599</v>
       </c>
       <c r="G163" t="s">
+        <v>978</v>
+      </c>
+      <c r="H163" t="s">
+        <v>979</v>
+      </c>
+      <c r="I163" t="s">
         <v>980</v>
       </c>
-      <c r="H163" t="s">
+      <c r="J163" t="s">
         <v>981</v>
       </c>
-      <c r="I163" t="s">
+      <c r="K163" t="s">
         <v>982</v>
       </c>
-      <c r="J163" t="s">
-        <v>983</v>
-      </c>
-      <c r="K163" t="s">
-        <v>984</v>
-      </c>
       <c r="L163" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M163" t="s">
         <v>20</v>
@@ -12687,7 +12684,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B164">
         <v>301000</v>
@@ -12705,22 +12702,22 @@
         <v>4719069</v>
       </c>
       <c r="G164" t="s">
+        <v>984</v>
+      </c>
+      <c r="H164" t="s">
+        <v>985</v>
+      </c>
+      <c r="I164" t="s">
         <v>986</v>
       </c>
-      <c r="H164" t="s">
+      <c r="J164" t="s">
         <v>987</v>
       </c>
-      <c r="I164" t="s">
+      <c r="K164" t="s">
         <v>988</v>
       </c>
-      <c r="J164" t="s">
-        <v>989</v>
-      </c>
-      <c r="K164" t="s">
-        <v>990</v>
-      </c>
       <c r="L164" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M164" t="s">
         <v>20</v>
@@ -12728,7 +12725,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B165">
         <v>52700</v>
@@ -12746,22 +12743,22 @@
         <v>3313681</v>
       </c>
       <c r="G165" t="s">
+        <v>990</v>
+      </c>
+      <c r="H165" t="s">
+        <v>991</v>
+      </c>
+      <c r="I165" t="s">
         <v>992</v>
       </c>
-      <c r="H165" t="s">
+      <c r="J165" t="s">
         <v>993</v>
       </c>
-      <c r="I165" t="s">
+      <c r="K165" t="s">
         <v>994</v>
       </c>
-      <c r="J165" t="s">
-        <v>995</v>
-      </c>
-      <c r="K165" t="s">
-        <v>996</v>
-      </c>
       <c r="L165" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M165" t="s">
         <v>20</v>
@@ -12769,7 +12766,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B166">
         <v>149000</v>
@@ -12787,22 +12784,22 @@
         <v>2307765</v>
       </c>
       <c r="G166" t="s">
+        <v>996</v>
+      </c>
+      <c r="H166" t="s">
+        <v>997</v>
+      </c>
+      <c r="I166" t="s">
         <v>998</v>
       </c>
-      <c r="H166" t="s">
+      <c r="J166" t="s">
         <v>999</v>
       </c>
-      <c r="I166" t="s">
+      <c r="K166" t="s">
         <v>1000</v>
       </c>
-      <c r="J166" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K166" t="s">
-        <v>1002</v>
-      </c>
       <c r="L166" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M166" t="s">
         <v>20</v>
@@ -12810,7 +12807,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B167">
         <v>125000</v>
@@ -12828,22 +12825,22 @@
         <v>1477232</v>
       </c>
       <c r="G167" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I167" t="s">
         <v>1004</v>
       </c>
-      <c r="H167" t="s">
+      <c r="J167" t="s">
         <v>1005</v>
       </c>
-      <c r="I167" t="s">
+      <c r="K167" t="s">
         <v>1006</v>
       </c>
-      <c r="J167" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K167" t="s">
-        <v>1008</v>
-      </c>
       <c r="L167" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M167" t="s">
         <v>20</v>
@@ -12851,7 +12848,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B168">
         <v>60800</v>
@@ -12869,22 +12866,22 @@
         <v>1134851</v>
       </c>
       <c r="G168" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I168" t="s">
         <v>1010</v>
       </c>
-      <c r="H168" t="s">
+      <c r="J168" t="s">
         <v>1011</v>
       </c>
-      <c r="I168" t="s">
+      <c r="K168" t="s">
         <v>1012</v>
       </c>
-      <c r="J168" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K168" t="s">
-        <v>1014</v>
-      </c>
       <c r="L168" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M168" t="s">
         <v>20</v>
@@ -12892,7 +12889,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B169">
         <v>1980000</v>
@@ -12910,22 +12907,22 @@
         <v>8528363</v>
       </c>
       <c r="G169" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I169" t="s">
         <v>1016</v>
       </c>
-      <c r="H169" t="s">
+      <c r="J169" t="s">
         <v>1017</v>
       </c>
-      <c r="I169" t="s">
+      <c r="K169" t="s">
         <v>1018</v>
       </c>
-      <c r="J169" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K169" t="s">
-        <v>1020</v>
-      </c>
       <c r="L169" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M169" t="s">
         <v>20</v>
@@ -12933,7 +12930,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B170">
         <v>114000</v>
@@ -12951,22 +12948,22 @@
         <v>3236458</v>
       </c>
       <c r="G170" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I170" t="s">
         <v>1022</v>
       </c>
-      <c r="H170" t="s">
+      <c r="J170" t="s">
         <v>1023</v>
       </c>
-      <c r="I170" t="s">
+      <c r="K170" t="s">
         <v>1024</v>
       </c>
-      <c r="J170" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K170" t="s">
-        <v>1026</v>
-      </c>
       <c r="L170" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M170" t="s">
         <v>20</v>
@@ -12974,7 +12971,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B171">
         <v>55200</v>
@@ -12992,22 +12989,22 @@
         <v>1469055</v>
       </c>
       <c r="G171" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I171" t="s">
         <v>1028</v>
       </c>
-      <c r="H171" t="s">
+      <c r="J171" t="s">
         <v>1029</v>
       </c>
-      <c r="I171" t="s">
+      <c r="K171" t="s">
         <v>1030</v>
       </c>
-      <c r="J171" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K171" t="s">
-        <v>1032</v>
-      </c>
       <c r="L171" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M171" t="s">
         <v>20</v>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B172">
         <v>198000</v>
@@ -13033,22 +13030,22 @@
         <v>2051570</v>
       </c>
       <c r="G172" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I172" t="s">
         <v>1034</v>
       </c>
-      <c r="H172" t="s">
+      <c r="J172" t="s">
         <v>1035</v>
       </c>
-      <c r="I172" t="s">
+      <c r="K172" t="s">
         <v>1036</v>
       </c>
-      <c r="J172" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K172" t="s">
-        <v>1038</v>
-      </c>
       <c r="L172" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M172" t="s">
         <v>20</v>
@@ -13056,7 +13053,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B173">
         <v>663000</v>
@@ -13074,22 +13071,22 @@
         <v>12082390</v>
       </c>
       <c r="G173" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I173" t="s">
         <v>1040</v>
       </c>
-      <c r="H173" t="s">
+      <c r="J173" t="s">
         <v>1041</v>
       </c>
-      <c r="I173" t="s">
+      <c r="K173" t="s">
         <v>1042</v>
       </c>
-      <c r="J173" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K173" t="s">
-        <v>1044</v>
-      </c>
       <c r="L173" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M173" t="s">
         <v>20</v>
@@ -13097,7 +13094,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B174">
         <v>86500</v>
@@ -13115,22 +13112,22 @@
         <v>1639185</v>
       </c>
       <c r="G174" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I174" t="s">
         <v>1046</v>
       </c>
-      <c r="H174" t="s">
+      <c r="J174" t="s">
         <v>1047</v>
       </c>
-      <c r="I174" t="s">
+      <c r="K174" t="s">
         <v>1048</v>
       </c>
-      <c r="J174" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K174" t="s">
-        <v>1050</v>
-      </c>
       <c r="L174" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M174" t="s">
         <v>20</v>
@@ -13138,7 +13135,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B175">
         <v>149000</v>
@@ -13156,22 +13153,22 @@
         <v>5050252</v>
       </c>
       <c r="G175" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I175" t="s">
         <v>1052</v>
       </c>
-      <c r="H175" t="s">
+      <c r="J175" t="s">
         <v>1053</v>
       </c>
-      <c r="I175" t="s">
+      <c r="K175" t="s">
         <v>1054</v>
       </c>
-      <c r="J175" t="s">
-        <v>1055</v>
-      </c>
-      <c r="K175" t="s">
-        <v>1056</v>
-      </c>
       <c r="L175" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M175" t="s">
         <v>20</v>
@@ -13179,7 +13176,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B176">
         <v>448000</v>
@@ -13197,22 +13194,22 @@
         <v>2048400</v>
       </c>
       <c r="G176" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I176" t="s">
         <v>1058</v>
       </c>
-      <c r="H176" t="s">
+      <c r="J176" t="s">
         <v>1059</v>
       </c>
-      <c r="I176" t="s">
+      <c r="K176" t="s">
         <v>1060</v>
       </c>
-      <c r="J176" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K176" t="s">
-        <v>1062</v>
-      </c>
       <c r="L176" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M176" t="s">
         <v>20</v>
@@ -13220,7 +13217,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B177">
         <v>79700</v>
@@ -13238,22 +13235,22 @@
         <v>1312141</v>
       </c>
       <c r="G177" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I177" t="s">
         <v>1064</v>
       </c>
-      <c r="H177" t="s">
+      <c r="J177" t="s">
         <v>1065</v>
       </c>
-      <c r="I177" t="s">
+      <c r="K177" t="s">
         <v>1066</v>
       </c>
-      <c r="J177" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K177" t="s">
-        <v>1068</v>
-      </c>
       <c r="L177" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M177" t="s">
         <v>20</v>
@@ -13261,7 +13258,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B178">
         <v>124000</v>
@@ -13279,22 +13276,22 @@
         <v>2037961</v>
       </c>
       <c r="G178" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I178" t="s">
         <v>1070</v>
       </c>
-      <c r="H178" t="s">
+      <c r="J178" t="s">
         <v>1071</v>
       </c>
-      <c r="I178" t="s">
+      <c r="K178" t="s">
         <v>1072</v>
       </c>
-      <c r="J178" t="s">
-        <v>1073</v>
-      </c>
-      <c r="K178" t="s">
-        <v>1074</v>
-      </c>
       <c r="L178" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M178" t="s">
         <v>20</v>
@@ -13302,7 +13299,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B179">
         <v>147000</v>
@@ -13320,22 +13317,22 @@
         <v>1376791</v>
       </c>
       <c r="G179" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I179" t="s">
         <v>1076</v>
       </c>
-      <c r="H179" t="s">
+      <c r="J179" t="s">
         <v>1077</v>
       </c>
-      <c r="I179" t="s">
+      <c r="K179" t="s">
         <v>1078</v>
       </c>
-      <c r="J179" t="s">
-        <v>1079</v>
-      </c>
-      <c r="K179" t="s">
-        <v>1080</v>
-      </c>
       <c r="L179" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M179" t="s">
         <v>20</v>
@@ -13343,7 +13340,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B180">
         <v>108000</v>
@@ -13361,22 +13358,22 @@
         <v>2485985</v>
       </c>
       <c r="G180" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I180" t="s">
         <v>1082</v>
       </c>
-      <c r="H180" t="s">
+      <c r="J180" t="s">
         <v>1083</v>
       </c>
-      <c r="I180" t="s">
+      <c r="K180" t="s">
         <v>1084</v>
       </c>
-      <c r="J180" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K180" t="s">
-        <v>1086</v>
-      </c>
       <c r="L180" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M180" t="s">
         <v>20</v>
@@ -13384,7 +13381,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B181">
         <v>134000</v>
@@ -13402,22 +13399,22 @@
         <v>2806612</v>
       </c>
       <c r="G181" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I181" t="s">
         <v>1088</v>
       </c>
-      <c r="H181" t="s">
+      <c r="J181" t="s">
         <v>1089</v>
       </c>
-      <c r="I181" t="s">
+      <c r="K181" t="s">
         <v>1090</v>
       </c>
-      <c r="J181" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K181" t="s">
-        <v>1092</v>
-      </c>
       <c r="L181" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M181" t="s">
         <v>20</v>
@@ -13425,7 +13422,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B182">
         <v>419000</v>
@@ -13443,22 +13440,22 @@
         <v>1648199</v>
       </c>
       <c r="G182" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I182" t="s">
         <v>1094</v>
       </c>
-      <c r="H182" t="s">
+      <c r="J182" t="s">
         <v>1095</v>
       </c>
-      <c r="I182" t="s">
+      <c r="K182" t="s">
         <v>1096</v>
       </c>
-      <c r="J182" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K182" t="s">
-        <v>1098</v>
-      </c>
       <c r="L182" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M182" t="s">
         <v>20</v>
@@ -13466,7 +13463,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B183">
         <v>69100</v>
@@ -13484,22 +13481,22 @@
         <v>2356816</v>
       </c>
       <c r="G183" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I183" t="s">
         <v>1100</v>
       </c>
-      <c r="H183" t="s">
+      <c r="J183" t="s">
         <v>1101</v>
       </c>
-      <c r="I183" t="s">
+      <c r="K183" t="s">
         <v>1102</v>
       </c>
-      <c r="J183" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K183" t="s">
-        <v>1104</v>
-      </c>
       <c r="L183" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M183" t="s">
         <v>20</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B184">
         <v>73700</v>
@@ -13525,22 +13522,22 @@
         <v>1782924</v>
       </c>
       <c r="G184" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I184" t="s">
         <v>1106</v>
       </c>
-      <c r="H184" t="s">
+      <c r="J184" t="s">
         <v>1107</v>
       </c>
-      <c r="I184" t="s">
+      <c r="K184" t="s">
         <v>1108</v>
       </c>
-      <c r="J184" t="s">
-        <v>1109</v>
-      </c>
-      <c r="K184" t="s">
-        <v>1110</v>
-      </c>
       <c r="L184" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M184" t="s">
         <v>20</v>
@@ -13548,7 +13545,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B185">
         <v>108000</v>
@@ -13566,22 +13563,22 @@
         <v>1557237</v>
       </c>
       <c r="G185" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I185" t="s">
         <v>1112</v>
       </c>
-      <c r="H185" t="s">
+      <c r="J185" t="s">
         <v>1113</v>
       </c>
-      <c r="I185" t="s">
+      <c r="K185" t="s">
         <v>1114</v>
       </c>
-      <c r="J185" t="s">
-        <v>1115</v>
-      </c>
-      <c r="K185" t="s">
-        <v>1116</v>
-      </c>
       <c r="L185" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M185" t="s">
         <v>20</v>
@@ -13589,7 +13586,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B186">
         <v>313000</v>
@@ -13607,22 +13604,22 @@
         <v>1272831</v>
       </c>
       <c r="G186" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I186" t="s">
         <v>1118</v>
       </c>
-      <c r="H186" t="s">
+      <c r="J186" t="s">
         <v>1119</v>
       </c>
-      <c r="I186" t="s">
+      <c r="K186" t="s">
         <v>1120</v>
       </c>
-      <c r="J186" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K186" t="s">
-        <v>1122</v>
-      </c>
       <c r="L186" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M186" t="s">
         <v>20</v>
@@ -13630,7 +13627,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B187">
         <v>112000</v>
@@ -13648,22 +13645,22 @@
         <v>3540713</v>
       </c>
       <c r="G187" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I187" t="s">
         <v>1124</v>
       </c>
-      <c r="H187" t="s">
+      <c r="J187" t="s">
         <v>1125</v>
       </c>
-      <c r="I187" t="s">
+      <c r="K187" t="s">
         <v>1126</v>
       </c>
-      <c r="J187" t="s">
-        <v>1127</v>
-      </c>
-      <c r="K187" t="s">
-        <v>1128</v>
-      </c>
       <c r="L187" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M187" t="s">
         <v>20</v>
@@ -13671,7 +13668,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B188">
         <v>161000</v>
@@ -13689,22 +13686,22 @@
         <v>2579780</v>
       </c>
       <c r="G188" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I188" t="s">
         <v>1130</v>
       </c>
-      <c r="H188" t="s">
+      <c r="J188" t="s">
         <v>1131</v>
       </c>
-      <c r="I188" t="s">
+      <c r="K188" t="s">
         <v>1132</v>
       </c>
-      <c r="J188" t="s">
-        <v>1133</v>
-      </c>
-      <c r="K188" t="s">
-        <v>1134</v>
-      </c>
       <c r="L188" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M188" t="s">
         <v>20</v>
@@ -13712,7 +13709,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B189">
         <v>148000</v>
@@ -13730,22 +13727,22 @@
         <v>1293769</v>
       </c>
       <c r="G189" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I189" t="s">
         <v>1136</v>
       </c>
-      <c r="H189" t="s">
+      <c r="J189" t="s">
         <v>1137</v>
       </c>
-      <c r="I189" t="s">
+      <c r="K189" t="s">
         <v>1138</v>
       </c>
-      <c r="J189" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K189" t="s">
-        <v>1140</v>
-      </c>
       <c r="L189" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M189" t="s">
         <v>20</v>
@@ -13753,7 +13750,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B190">
         <v>57300</v>
@@ -13771,22 +13768,22 @@
         <v>1263797</v>
       </c>
       <c r="G190" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I190" t="s">
         <v>1142</v>
       </c>
-      <c r="H190" t="s">
+      <c r="J190" t="s">
         <v>1143</v>
       </c>
-      <c r="I190" t="s">
+      <c r="K190" t="s">
         <v>1144</v>
       </c>
-      <c r="J190" t="s">
-        <v>1145</v>
-      </c>
-      <c r="K190" t="s">
-        <v>1146</v>
-      </c>
       <c r="L190" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M190" t="s">
         <v>20</v>
@@ -13794,7 +13791,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B191">
         <v>79900</v>
@@ -13812,22 +13809,22 @@
         <v>149902</v>
       </c>
       <c r="G191" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I191" t="s">
         <v>1148</v>
       </c>
-      <c r="H191" t="s">
+      <c r="J191" t="s">
         <v>1149</v>
       </c>
-      <c r="I191" t="s">
+      <c r="K191" t="s">
         <v>1150</v>
       </c>
-      <c r="J191" t="s">
+      <c r="L191" t="s">
         <v>1151</v>
-      </c>
-      <c r="K191" t="s">
-        <v>1152</v>
-      </c>
-      <c r="L191" t="s">
-        <v>1153</v>
       </c>
       <c r="M191" t="s">
         <v>20</v>
@@ -13835,7 +13832,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B192">
         <v>180000</v>
@@ -13853,22 +13850,22 @@
         <v>2444209</v>
       </c>
       <c r="G192" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I192" t="s">
         <v>1155</v>
       </c>
-      <c r="H192" t="s">
+      <c r="J192" t="s">
         <v>1156</v>
       </c>
-      <c r="I192" t="s">
+      <c r="K192" t="s">
         <v>1157</v>
       </c>
-      <c r="J192" t="s">
-        <v>1158</v>
-      </c>
-      <c r="K192" t="s">
-        <v>1159</v>
-      </c>
       <c r="L192" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M192" t="s">
         <v>20</v>
@@ -13876,7 +13873,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B193">
         <v>278000</v>
@@ -13894,22 +13891,22 @@
         <v>1929987</v>
       </c>
       <c r="G193" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I193" t="s">
         <v>1161</v>
       </c>
-      <c r="H193" t="s">
+      <c r="J193" t="s">
         <v>1162</v>
       </c>
-      <c r="I193" t="s">
+      <c r="K193" t="s">
         <v>1163</v>
       </c>
-      <c r="J193" t="s">
-        <v>1164</v>
-      </c>
-      <c r="K193" t="s">
-        <v>1165</v>
-      </c>
       <c r="L193" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M193" t="s">
         <v>20</v>
@@ -13917,7 +13914,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B194">
         <v>150000</v>
@@ -13935,22 +13932,22 @@
         <v>1807685</v>
       </c>
       <c r="G194" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I194" t="s">
         <v>1167</v>
       </c>
-      <c r="H194" t="s">
+      <c r="J194" t="s">
         <v>1168</v>
       </c>
-      <c r="I194" t="s">
+      <c r="K194" t="s">
         <v>1169</v>
       </c>
-      <c r="J194" t="s">
-        <v>1170</v>
-      </c>
-      <c r="K194" t="s">
-        <v>1171</v>
-      </c>
       <c r="L194" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M194" t="s">
         <v>20</v>
@@ -13958,7 +13955,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B195">
         <v>130000</v>
@@ -13976,22 +13973,22 @@
         <v>3074360</v>
       </c>
       <c r="G195" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I195" t="s">
         <v>1173</v>
       </c>
-      <c r="H195" t="s">
+      <c r="J195" t="s">
         <v>1174</v>
       </c>
-      <c r="I195" t="s">
+      <c r="K195" t="s">
         <v>1175</v>
       </c>
-      <c r="J195" t="s">
-        <v>1176</v>
-      </c>
-      <c r="K195" t="s">
-        <v>1177</v>
-      </c>
       <c r="L195" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M195" t="s">
         <v>20</v>
@@ -13999,7 +13996,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B196">
         <v>196000</v>
@@ -14017,22 +14014,22 @@
         <v>2097477</v>
       </c>
       <c r="G196" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I196" t="s">
         <v>1179</v>
       </c>
-      <c r="H196" t="s">
+      <c r="J196" t="s">
         <v>1180</v>
       </c>
-      <c r="I196" t="s">
+      <c r="K196" t="s">
         <v>1181</v>
       </c>
-      <c r="J196" t="s">
-        <v>1182</v>
-      </c>
-      <c r="K196" t="s">
-        <v>1183</v>
-      </c>
       <c r="L196" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M196" t="s">
         <v>20</v>
@@ -14040,7 +14037,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B197">
         <v>125000</v>
@@ -14058,22 +14055,22 @@
         <v>1618245</v>
       </c>
       <c r="G197" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I197" t="s">
         <v>1185</v>
       </c>
-      <c r="H197" t="s">
+      <c r="J197" t="s">
         <v>1186</v>
       </c>
-      <c r="I197" t="s">
+      <c r="K197" t="s">
         <v>1187</v>
       </c>
-      <c r="J197" t="s">
-        <v>1188</v>
-      </c>
-      <c r="K197" t="s">
-        <v>1189</v>
-      </c>
       <c r="L197" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M197" t="s">
         <v>20</v>
@@ -14081,7 +14078,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B198">
         <v>277000</v>
@@ -14099,22 +14096,22 @@
         <v>1643233</v>
       </c>
       <c r="G198" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I198" t="s">
         <v>1191</v>
       </c>
-      <c r="H198" t="s">
+      <c r="J198" t="s">
         <v>1192</v>
       </c>
-      <c r="I198" t="s">
+      <c r="K198" t="s">
         <v>1193</v>
       </c>
-      <c r="J198" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K198" t="s">
-        <v>1195</v>
-      </c>
       <c r="L198" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M198" t="s">
         <v>20</v>
@@ -14122,7 +14119,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B199">
         <v>396000</v>
@@ -14140,22 +14137,22 @@
         <v>4407718</v>
       </c>
       <c r="G199" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I199" t="s">
         <v>1197</v>
       </c>
-      <c r="H199" t="s">
+      <c r="J199" t="s">
         <v>1198</v>
       </c>
-      <c r="I199" t="s">
+      <c r="K199" t="s">
         <v>1199</v>
       </c>
-      <c r="J199" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K199" t="s">
-        <v>1201</v>
-      </c>
       <c r="L199" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M199" t="s">
         <v>20</v>
@@ -14163,7 +14160,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B200">
         <v>146000</v>
@@ -14181,22 +14178,22 @@
         <v>2787525</v>
       </c>
       <c r="G200" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I200" t="s">
         <v>1203</v>
       </c>
-      <c r="H200" t="s">
+      <c r="J200" t="s">
         <v>1204</v>
       </c>
-      <c r="I200" t="s">
+      <c r="K200" t="s">
         <v>1205</v>
       </c>
-      <c r="J200" t="s">
-        <v>1206</v>
-      </c>
-      <c r="K200" t="s">
-        <v>1207</v>
-      </c>
       <c r="L200" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M200" t="s">
         <v>20</v>
@@ -14204,7 +14201,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B201">
         <v>190000</v>
@@ -14222,22 +14219,22 @@
         <v>1691977</v>
       </c>
       <c r="G201" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I201" t="s">
         <v>1209</v>
       </c>
-      <c r="H201" t="s">
+      <c r="J201" t="s">
         <v>1210</v>
       </c>
-      <c r="I201" t="s">
+      <c r="K201" t="s">
         <v>1211</v>
       </c>
-      <c r="J201" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K201" t="s">
-        <v>1213</v>
-      </c>
       <c r="L201" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M201" t="s">
         <v>20</v>
@@ -14245,7 +14242,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B202">
         <v>157000</v>
@@ -14263,22 +14260,22 @@
         <v>2621776</v>
       </c>
       <c r="G202" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I202" t="s">
         <v>1215</v>
       </c>
-      <c r="H202" t="s">
+      <c r="J202" t="s">
         <v>1216</v>
       </c>
-      <c r="I202" t="s">
+      <c r="K202" t="s">
         <v>1217</v>
       </c>
-      <c r="J202" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K202" t="s">
-        <v>1219</v>
-      </c>
       <c r="L202" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M202" t="s">
         <v>20</v>
@@ -14286,7 +14283,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B203">
         <v>94600</v>
@@ -14304,22 +14301,22 @@
         <v>2008475</v>
       </c>
       <c r="G203" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I203" t="s">
         <v>1221</v>
       </c>
-      <c r="H203" t="s">
+      <c r="J203" t="s">
         <v>1222</v>
       </c>
-      <c r="I203" t="s">
+      <c r="K203" t="s">
         <v>1223</v>
       </c>
-      <c r="J203" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K203" t="s">
-        <v>1225</v>
-      </c>
       <c r="L203" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M203" t="s">
         <v>20</v>
@@ -14327,7 +14324,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B204">
         <v>78500</v>
@@ -14345,22 +14342,22 @@
         <v>1250535</v>
       </c>
       <c r="G204" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I204" t="s">
         <v>1227</v>
       </c>
-      <c r="H204" t="s">
+      <c r="J204" t="s">
         <v>1228</v>
       </c>
-      <c r="I204" t="s">
+      <c r="K204" t="s">
         <v>1229</v>
       </c>
-      <c r="J204" t="s">
-        <v>1230</v>
-      </c>
-      <c r="K204" t="s">
-        <v>1231</v>
-      </c>
       <c r="L204" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M204" t="s">
         <v>20</v>
@@ -14368,7 +14365,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B205">
         <v>91900</v>
@@ -14386,22 +14383,22 @@
         <v>872703</v>
       </c>
       <c r="G205" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I205" t="s">
         <v>1233</v>
       </c>
-      <c r="H205" t="s">
+      <c r="J205" t="s">
         <v>1234</v>
       </c>
-      <c r="I205" t="s">
+      <c r="K205" t="s">
         <v>1235</v>
       </c>
-      <c r="J205" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K205" t="s">
-        <v>1237</v>
-      </c>
       <c r="L205" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M205" t="s">
         <v>20</v>
@@ -14409,7 +14406,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B206">
         <v>625000</v>
@@ -14427,22 +14424,22 @@
         <v>2570739</v>
       </c>
       <c r="G206" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I206" t="s">
         <v>1239</v>
       </c>
-      <c r="H206" t="s">
+      <c r="J206" t="s">
         <v>1240</v>
       </c>
-      <c r="I206" t="s">
+      <c r="K206" t="s">
         <v>1241</v>
       </c>
-      <c r="J206" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K206" t="s">
-        <v>1243</v>
-      </c>
       <c r="L206" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M206" t="s">
         <v>20</v>
@@ -14450,7 +14447,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B207">
         <v>277000</v>
@@ -14468,22 +14465,22 @@
         <v>1943837</v>
       </c>
       <c r="G207" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I207" t="s">
         <v>1245</v>
       </c>
-      <c r="H207" t="s">
+      <c r="J207" t="s">
         <v>1246</v>
       </c>
-      <c r="I207" t="s">
+      <c r="K207" t="s">
         <v>1247</v>
       </c>
-      <c r="J207" t="s">
-        <v>1248</v>
-      </c>
-      <c r="K207" t="s">
-        <v>1249</v>
-      </c>
       <c r="L207" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M207" t="s">
         <v>20</v>
@@ -14491,7 +14488,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B208">
         <v>325000</v>
@@ -14509,22 +14506,22 @@
         <v>1128006</v>
       </c>
       <c r="G208" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I208" t="s">
         <v>1251</v>
       </c>
-      <c r="H208" t="s">
+      <c r="J208" t="s">
         <v>1252</v>
       </c>
-      <c r="I208" t="s">
+      <c r="K208" t="s">
         <v>1253</v>
       </c>
-      <c r="J208" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K208" t="s">
-        <v>1255</v>
-      </c>
       <c r="L208" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M208" t="s">
         <v>20</v>
@@ -14532,7 +14529,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B209">
         <v>137000</v>
@@ -14550,22 +14547,22 @@
         <v>1255392</v>
       </c>
       <c r="G209" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I209" t="s">
         <v>1257</v>
       </c>
-      <c r="H209" t="s">
+      <c r="J209" t="s">
         <v>1258</v>
       </c>
-      <c r="I209" t="s">
+      <c r="K209" t="s">
         <v>1259</v>
       </c>
-      <c r="J209" t="s">
-        <v>1260</v>
-      </c>
-      <c r="K209" t="s">
-        <v>1261</v>
-      </c>
       <c r="L209" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M209" t="s">
         <v>20</v>
@@ -14573,7 +14570,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B210">
         <v>146000</v>
@@ -14591,22 +14588,22 @@
         <v>1297973</v>
       </c>
       <c r="G210" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I210" t="s">
         <v>1263</v>
       </c>
-      <c r="H210" t="s">
+      <c r="J210" t="s">
         <v>1264</v>
       </c>
-      <c r="I210" t="s">
+      <c r="K210" t="s">
         <v>1265</v>
       </c>
-      <c r="J210" t="s">
-        <v>1266</v>
-      </c>
-      <c r="K210" t="s">
-        <v>1267</v>
-      </c>
       <c r="L210" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M210" t="s">
         <v>20</v>
@@ -14614,7 +14611,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B211">
         <v>285000</v>
@@ -14632,22 +14629,22 @@
         <v>1578666</v>
       </c>
       <c r="G211" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I211" t="s">
         <v>1269</v>
       </c>
-      <c r="H211" t="s">
+      <c r="J211" t="s">
         <v>1270</v>
       </c>
-      <c r="I211" t="s">
+      <c r="K211" t="s">
         <v>1271</v>
       </c>
-      <c r="J211" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K211" t="s">
-        <v>1273</v>
-      </c>
       <c r="L211" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M211" t="s">
         <v>20</v>
@@ -14655,7 +14652,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B212">
         <v>248000</v>
@@ -14673,22 +14670,22 @@
         <v>4671648</v>
       </c>
       <c r="G212" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I212" t="s">
         <v>1275</v>
       </c>
-      <c r="H212" t="s">
+      <c r="J212" t="s">
         <v>1276</v>
       </c>
-      <c r="I212" t="s">
+      <c r="K212" t="s">
         <v>1277</v>
       </c>
-      <c r="J212" t="s">
-        <v>1278</v>
-      </c>
-      <c r="K212" t="s">
-        <v>1279</v>
-      </c>
       <c r="L212" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M212" t="s">
         <v>20</v>
@@ -14696,7 +14693,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B213">
         <v>127000</v>
@@ -14714,22 +14711,22 @@
         <v>1773105</v>
       </c>
       <c r="G213" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I213" t="s">
         <v>1281</v>
       </c>
-      <c r="H213" t="s">
+      <c r="J213" t="s">
         <v>1282</v>
       </c>
-      <c r="I213" t="s">
+      <c r="K213" t="s">
         <v>1283</v>
       </c>
-      <c r="J213" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K213" t="s">
-        <v>1285</v>
-      </c>
       <c r="L213" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M213" t="s">
         <v>20</v>
@@ -14737,7 +14734,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B214">
         <v>215000</v>
@@ -14755,22 +14752,22 @@
         <v>2000886</v>
       </c>
       <c r="G214" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I214" t="s">
         <v>1287</v>
       </c>
-      <c r="H214" t="s">
+      <c r="J214" t="s">
         <v>1288</v>
       </c>
-      <c r="I214" t="s">
+      <c r="K214" t="s">
         <v>1289</v>
       </c>
-      <c r="J214" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K214" t="s">
-        <v>1291</v>
-      </c>
       <c r="L214" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M214" t="s">
         <v>20</v>
@@ -14778,7 +14775,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B215">
         <v>136000</v>
@@ -14796,22 +14793,22 @@
         <v>1385143</v>
       </c>
       <c r="G215" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I215" t="s">
         <v>1293</v>
       </c>
-      <c r="H215" t="s">
+      <c r="J215" t="s">
         <v>1294</v>
       </c>
-      <c r="I215" t="s">
+      <c r="K215" t="s">
         <v>1295</v>
       </c>
-      <c r="J215" t="s">
-        <v>1296</v>
-      </c>
-      <c r="K215" t="s">
-        <v>1297</v>
-      </c>
       <c r="L215" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M215" t="s">
         <v>20</v>
@@ -14819,7 +14816,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B216">
         <v>537000</v>
@@ -14837,22 +14834,22 @@
         <v>3886922</v>
       </c>
       <c r="G216" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I216" t="s">
         <v>1299</v>
       </c>
-      <c r="H216" t="s">
+      <c r="J216" t="s">
         <v>1300</v>
       </c>
-      <c r="I216" t="s">
+      <c r="K216" t="s">
         <v>1301</v>
       </c>
-      <c r="J216" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K216" t="s">
-        <v>1303</v>
-      </c>
       <c r="L216" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M216" t="s">
         <v>20</v>
@@ -14860,7 +14857,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B217">
         <v>256000</v>
@@ -14878,22 +14875,22 @@
         <v>3759947</v>
       </c>
       <c r="G217" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I217" t="s">
         <v>1305</v>
       </c>
-      <c r="H217" t="s">
+      <c r="J217" t="s">
         <v>1306</v>
       </c>
-      <c r="I217" t="s">
+      <c r="K217" t="s">
         <v>1307</v>
       </c>
-      <c r="J217" t="s">
-        <v>1308</v>
-      </c>
-      <c r="K217" t="s">
-        <v>1309</v>
-      </c>
       <c r="L217" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M217" t="s">
         <v>20</v>
@@ -14901,7 +14898,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B218">
         <v>365000</v>
@@ -14919,22 +14916,22 @@
         <v>2469425</v>
       </c>
       <c r="G218" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I218" t="s">
         <v>1311</v>
       </c>
-      <c r="H218" t="s">
+      <c r="J218" t="s">
         <v>1312</v>
       </c>
-      <c r="I218" t="s">
+      <c r="K218" t="s">
         <v>1313</v>
       </c>
-      <c r="J218" t="s">
-        <v>1314</v>
-      </c>
-      <c r="K218" t="s">
-        <v>1315</v>
-      </c>
       <c r="L218" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M218" t="s">
         <v>20</v>
@@ -14942,7 +14939,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B219">
         <v>255000</v>
@@ -14960,22 +14957,22 @@
         <v>2561959</v>
       </c>
       <c r="G219" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I219" t="s">
         <v>1317</v>
       </c>
-      <c r="H219" t="s">
+      <c r="J219" t="s">
         <v>1318</v>
       </c>
-      <c r="I219" t="s">
+      <c r="K219" t="s">
         <v>1319</v>
       </c>
-      <c r="J219" t="s">
-        <v>1320</v>
-      </c>
-      <c r="K219" t="s">
-        <v>1321</v>
-      </c>
       <c r="L219" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M219" t="s">
         <v>20</v>
@@ -14983,7 +14980,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B220">
         <v>209000</v>
@@ -15001,22 +14998,22 @@
         <v>1322862</v>
       </c>
       <c r="G220" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I220" t="s">
         <v>1323</v>
       </c>
-      <c r="H220" t="s">
+      <c r="J220" t="s">
         <v>1324</v>
       </c>
-      <c r="I220" t="s">
+      <c r="K220" t="s">
         <v>1325</v>
       </c>
-      <c r="J220" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K220" t="s">
-        <v>1327</v>
-      </c>
       <c r="L220" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M220" t="s">
         <v>20</v>
@@ -15024,7 +15021,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B221">
         <v>65700</v>
@@ -15042,22 +15039,22 @@
         <v>1072366</v>
       </c>
       <c r="G221" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I221" t="s">
         <v>1329</v>
       </c>
-      <c r="H221" t="s">
+      <c r="J221" t="s">
         <v>1330</v>
       </c>
-      <c r="I221" t="s">
+      <c r="K221" t="s">
         <v>1331</v>
       </c>
-      <c r="J221" t="s">
-        <v>1332</v>
-      </c>
-      <c r="K221" t="s">
-        <v>1333</v>
-      </c>
       <c r="L221" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M221" t="s">
         <v>20</v>
@@ -15065,7 +15062,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B222">
         <v>262000</v>
@@ -15083,22 +15080,22 @@
         <v>1425143</v>
       </c>
       <c r="G222" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I222" t="s">
         <v>1335</v>
       </c>
-      <c r="H222" t="s">
+      <c r="J222" t="s">
         <v>1336</v>
       </c>
-      <c r="I222" t="s">
+      <c r="K222" t="s">
         <v>1337</v>
       </c>
-      <c r="J222" t="s">
-        <v>1338</v>
-      </c>
-      <c r="K222" t="s">
-        <v>1339</v>
-      </c>
       <c r="L222" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="M222" t="s">
         <v>20</v>
@@ -15106,7 +15103,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B223">
         <v>23500</v>
@@ -15124,22 +15121,22 @@
         <v>620725</v>
       </c>
       <c r="G223" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I223" t="s">
         <v>1341</v>
       </c>
-      <c r="H223" t="s">
+      <c r="J223" t="s">
         <v>1342</v>
       </c>
-      <c r="I223" t="s">
+      <c r="K223" t="s">
         <v>1343</v>
       </c>
-      <c r="J223" t="s">
+      <c r="L223" t="s">
         <v>1344</v>
-      </c>
-      <c r="K223" t="s">
-        <v>1345</v>
-      </c>
-      <c r="L223" t="s">
-        <v>1346</v>
       </c>
       <c r="M223" t="s">
         <v>20</v>
@@ -15147,7 +15144,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B224">
         <v>17200</v>
@@ -15165,22 +15162,22 @@
         <v>416294</v>
       </c>
       <c r="G224" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I224" t="s">
         <v>1348</v>
       </c>
-      <c r="H224" t="s">
+      <c r="J224" t="s">
         <v>1349</v>
       </c>
-      <c r="I224" t="s">
+      <c r="K224" t="s">
         <v>1350</v>
       </c>
-      <c r="J224" t="s">
-        <v>1351</v>
-      </c>
-      <c r="K224" t="s">
-        <v>1352</v>
-      </c>
       <c r="L224" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M224" t="s">
         <v>20</v>
@@ -15188,7 +15185,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B225">
         <v>42300</v>
@@ -15206,22 +15203,22 @@
         <v>1658576</v>
       </c>
       <c r="G225" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I225" t="s">
         <v>1354</v>
       </c>
-      <c r="H225" t="s">
+      <c r="J225" t="s">
         <v>1355</v>
       </c>
-      <c r="I225" t="s">
+      <c r="K225" t="s">
         <v>1356</v>
       </c>
-      <c r="J225" t="s">
-        <v>1357</v>
-      </c>
-      <c r="K225" t="s">
-        <v>1358</v>
-      </c>
       <c r="L225" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M225" t="s">
         <v>20</v>
@@ -15229,7 +15226,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B226">
         <v>37000</v>
@@ -15247,22 +15244,22 @@
         <v>934777</v>
       </c>
       <c r="G226" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I226" t="s">
         <v>1360</v>
       </c>
-      <c r="H226" t="s">
+      <c r="J226" t="s">
         <v>1361</v>
       </c>
-      <c r="I226" t="s">
+      <c r="K226" t="s">
         <v>1362</v>
       </c>
-      <c r="J226" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K226" t="s">
-        <v>1364</v>
-      </c>
       <c r="L226" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M226" t="s">
         <v>20</v>
@@ -15270,7 +15267,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B227">
         <v>24700</v>
@@ -15288,22 +15285,22 @@
         <v>692967</v>
       </c>
       <c r="G227" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I227" t="s">
         <v>1366</v>
       </c>
-      <c r="H227" t="s">
+      <c r="J227" t="s">
         <v>1367</v>
       </c>
-      <c r="I227" t="s">
+      <c r="K227" t="s">
         <v>1368</v>
       </c>
-      <c r="J227" t="s">
-        <v>1369</v>
-      </c>
-      <c r="K227" t="s">
-        <v>1370</v>
-      </c>
       <c r="L227" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M227" t="s">
         <v>20</v>
@@ -15311,7 +15308,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B228">
         <v>18200</v>
@@ -15329,22 +15326,22 @@
         <v>584147</v>
       </c>
       <c r="G228" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I228" t="s">
         <v>1372</v>
       </c>
-      <c r="H228" t="s">
+      <c r="J228" t="s">
         <v>1373</v>
       </c>
-      <c r="I228" t="s">
+      <c r="K228" t="s">
         <v>1374</v>
       </c>
-      <c r="J228" t="s">
-        <v>1375</v>
-      </c>
-      <c r="K228" t="s">
-        <v>1376</v>
-      </c>
       <c r="L228" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M228" t="s">
         <v>20</v>
@@ -15352,7 +15349,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B229">
         <v>88500</v>
@@ -15370,22 +15367,22 @@
         <v>2384528</v>
       </c>
       <c r="G229" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I229" t="s">
         <v>1378</v>
       </c>
-      <c r="H229" t="s">
+      <c r="J229" t="s">
         <v>1379</v>
       </c>
-      <c r="I229" t="s">
+      <c r="K229" t="s">
         <v>1380</v>
       </c>
-      <c r="J229" t="s">
-        <v>1381</v>
-      </c>
-      <c r="K229" t="s">
-        <v>1382</v>
-      </c>
       <c r="L229" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M229" t="s">
         <v>20</v>
@@ -15393,7 +15390,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B230">
         <v>52600</v>
@@ -15411,22 +15408,22 @@
         <v>674704</v>
       </c>
       <c r="G230" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I230" t="s">
         <v>1384</v>
       </c>
-      <c r="H230" t="s">
+      <c r="J230" t="s">
         <v>1385</v>
       </c>
-      <c r="I230" t="s">
+      <c r="K230" t="s">
         <v>1386</v>
       </c>
-      <c r="J230" t="s">
-        <v>1387</v>
-      </c>
-      <c r="K230" t="s">
-        <v>1388</v>
-      </c>
       <c r="L230" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M230" t="s">
         <v>20</v>
@@ -15434,7 +15431,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B231">
         <v>28600</v>
@@ -15452,22 +15449,22 @@
         <v>523782</v>
       </c>
       <c r="G231" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I231" t="s">
         <v>1390</v>
       </c>
-      <c r="H231" t="s">
+      <c r="J231" t="s">
         <v>1391</v>
       </c>
-      <c r="I231" t="s">
+      <c r="K231" t="s">
         <v>1392</v>
       </c>
-      <c r="J231" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K231" t="s">
-        <v>1394</v>
-      </c>
       <c r="L231" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M231" t="s">
         <v>20</v>
@@ -15475,7 +15472,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B232">
         <v>31800</v>
@@ -15493,22 +15490,22 @@
         <v>1138173</v>
       </c>
       <c r="G232" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I232" t="s">
         <v>1396</v>
       </c>
-      <c r="H232" t="s">
+      <c r="J232" t="s">
         <v>1397</v>
       </c>
-      <c r="I232" t="s">
+      <c r="K232" t="s">
         <v>1398</v>
       </c>
-      <c r="J232" t="s">
-        <v>1399</v>
-      </c>
-      <c r="K232" t="s">
-        <v>1400</v>
-      </c>
       <c r="L232" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M232" t="s">
         <v>20</v>
@@ -15516,7 +15513,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B233">
         <v>60600</v>
@@ -15534,22 +15531,22 @@
         <v>1287375</v>
       </c>
       <c r="G233" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I233" t="s">
         <v>1402</v>
       </c>
-      <c r="H233" t="s">
+      <c r="J233" t="s">
         <v>1403</v>
       </c>
-      <c r="I233" t="s">
+      <c r="K233" t="s">
         <v>1404</v>
       </c>
-      <c r="J233" t="s">
-        <v>1405</v>
-      </c>
-      <c r="K233" t="s">
-        <v>1406</v>
-      </c>
       <c r="L233" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M233" t="s">
         <v>20</v>
@@ -15557,7 +15554,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B234">
         <v>79900</v>
@@ -15575,22 +15572,22 @@
         <v>980478</v>
       </c>
       <c r="G234" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I234" t="s">
         <v>1408</v>
       </c>
-      <c r="H234" t="s">
+      <c r="J234" t="s">
         <v>1409</v>
       </c>
-      <c r="I234" t="s">
+      <c r="K234" t="s">
         <v>1410</v>
       </c>
-      <c r="J234" t="s">
-        <v>1411</v>
-      </c>
-      <c r="K234" t="s">
-        <v>1412</v>
-      </c>
       <c r="L234" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M234" t="s">
         <v>20</v>
@@ -15598,7 +15595,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B235">
         <v>79500</v>
@@ -15616,22 +15613,22 @@
         <v>465780</v>
       </c>
       <c r="G235" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I235" t="s">
         <v>1414</v>
       </c>
-      <c r="H235" t="s">
+      <c r="J235" t="s">
         <v>1415</v>
       </c>
-      <c r="I235" t="s">
+      <c r="K235" t="s">
         <v>1416</v>
       </c>
-      <c r="J235" t="s">
-        <v>1417</v>
-      </c>
-      <c r="K235" t="s">
-        <v>1418</v>
-      </c>
       <c r="L235" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M235" t="s">
         <v>20</v>
@@ -15639,7 +15636,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B236">
         <v>43600</v>
@@ -15657,22 +15654,22 @@
         <v>1151579</v>
       </c>
       <c r="G236" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I236" t="s">
         <v>1420</v>
       </c>
-      <c r="H236" t="s">
+      <c r="J236" t="s">
         <v>1421</v>
       </c>
-      <c r="I236" t="s">
+      <c r="K236" t="s">
         <v>1422</v>
       </c>
-      <c r="J236" t="s">
-        <v>1423</v>
-      </c>
-      <c r="K236" t="s">
-        <v>1424</v>
-      </c>
       <c r="L236" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M236" t="s">
         <v>20</v>
@@ -15680,7 +15677,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B237">
         <v>52300</v>
@@ -15698,22 +15695,22 @@
         <v>759476</v>
       </c>
       <c r="G237" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I237" t="s">
         <v>1426</v>
       </c>
-      <c r="H237" t="s">
+      <c r="J237" t="s">
         <v>1427</v>
       </c>
-      <c r="I237" t="s">
+      <c r="K237" t="s">
         <v>1428</v>
       </c>
-      <c r="J237" t="s">
-        <v>1429</v>
-      </c>
-      <c r="K237" t="s">
-        <v>1430</v>
-      </c>
       <c r="L237" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M237" t="s">
         <v>20</v>
@@ -15721,7 +15718,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B238">
         <v>185000</v>
@@ -15739,22 +15736,22 @@
         <v>1617547</v>
       </c>
       <c r="G238" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I238" t="s">
         <v>1432</v>
       </c>
-      <c r="H238" t="s">
+      <c r="J238" t="s">
         <v>1433</v>
       </c>
-      <c r="I238" t="s">
+      <c r="K238" t="s">
         <v>1434</v>
       </c>
-      <c r="J238" t="s">
-        <v>1435</v>
-      </c>
-      <c r="K238" t="s">
-        <v>1436</v>
-      </c>
       <c r="L238" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M238" t="s">
         <v>20</v>
@@ -15762,7 +15759,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B239">
         <v>6980</v>
@@ -15780,22 +15777,22 @@
         <v>653217</v>
       </c>
       <c r="G239" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I239" t="s">
         <v>1438</v>
       </c>
-      <c r="H239" t="s">
+      <c r="J239" t="s">
         <v>1439</v>
       </c>
-      <c r="I239" t="s">
+      <c r="K239" t="s">
         <v>1440</v>
       </c>
-      <c r="J239" t="s">
-        <v>1441</v>
-      </c>
-      <c r="K239" t="s">
-        <v>1442</v>
-      </c>
       <c r="L239" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M239" t="s">
         <v>20</v>
@@ -15803,7 +15800,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B240">
         <v>37200</v>
@@ -15821,22 +15818,22 @@
         <v>788814</v>
       </c>
       <c r="G240" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I240" t="s">
         <v>1444</v>
       </c>
-      <c r="H240" t="s">
+      <c r="J240" t="s">
         <v>1445</v>
       </c>
-      <c r="I240" t="s">
+      <c r="K240" t="s">
         <v>1446</v>
       </c>
-      <c r="J240" t="s">
-        <v>1447</v>
-      </c>
-      <c r="K240" t="s">
-        <v>1448</v>
-      </c>
       <c r="L240" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M240" t="s">
         <v>20</v>
@@ -15844,7 +15841,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B241">
         <v>7580</v>
@@ -15862,22 +15859,22 @@
         <v>604782</v>
       </c>
       <c r="G241" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I241" t="s">
         <v>1450</v>
       </c>
-      <c r="H241" t="s">
+      <c r="J241" t="s">
         <v>1451</v>
       </c>
-      <c r="I241" t="s">
+      <c r="K241" t="s">
         <v>1452</v>
       </c>
-      <c r="J241" t="s">
-        <v>1453</v>
-      </c>
-      <c r="K241" t="s">
-        <v>1454</v>
-      </c>
       <c r="L241" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M241" t="s">
         <v>20</v>
@@ -15885,7 +15882,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B242">
         <v>52900</v>
@@ -15903,22 +15900,22 @@
         <v>1504033</v>
       </c>
       <c r="G242" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I242" t="s">
         <v>1456</v>
       </c>
-      <c r="H242" t="s">
+      <c r="J242" t="s">
         <v>1457</v>
       </c>
-      <c r="I242" t="s">
+      <c r="K242" t="s">
         <v>1458</v>
       </c>
-      <c r="J242" t="s">
-        <v>1459</v>
-      </c>
-      <c r="K242" t="s">
-        <v>1460</v>
-      </c>
       <c r="L242" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M242" t="s">
         <v>20</v>
@@ -15926,7 +15923,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B243">
         <v>30800</v>
@@ -15944,22 +15941,22 @@
         <v>759516</v>
       </c>
       <c r="G243" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I243" t="s">
         <v>1462</v>
       </c>
-      <c r="H243" t="s">
+      <c r="J243" t="s">
         <v>1463</v>
       </c>
-      <c r="I243" t="s">
+      <c r="K243" t="s">
         <v>1464</v>
       </c>
-      <c r="J243" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K243" t="s">
-        <v>1466</v>
-      </c>
       <c r="L243" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M243" t="s">
         <v>20</v>
@@ -15967,7 +15964,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B244">
         <v>31900</v>
@@ -15985,22 +15982,22 @@
         <v>1584904</v>
       </c>
       <c r="G244" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I244" t="s">
         <v>1468</v>
       </c>
-      <c r="H244" t="s">
+      <c r="J244" t="s">
         <v>1469</v>
       </c>
-      <c r="I244" t="s">
+      <c r="K244" t="s">
         <v>1470</v>
       </c>
-      <c r="J244" t="s">
-        <v>1471</v>
-      </c>
-      <c r="K244" t="s">
-        <v>1472</v>
-      </c>
       <c r="L244" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M244" t="s">
         <v>20</v>
@@ -16008,7 +16005,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B245">
         <v>64500</v>
@@ -16026,22 +16023,22 @@
         <v>1875549</v>
       </c>
       <c r="G245" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I245" t="s">
         <v>1474</v>
       </c>
-      <c r="H245" t="s">
+      <c r="J245" t="s">
         <v>1475</v>
       </c>
-      <c r="I245" t="s">
+      <c r="K245" t="s">
         <v>1476</v>
       </c>
-      <c r="J245" t="s">
-        <v>1477</v>
-      </c>
-      <c r="K245" t="s">
-        <v>1478</v>
-      </c>
       <c r="L245" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M245" t="s">
         <v>20</v>
@@ -16049,7 +16046,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B246">
         <v>35800</v>
@@ -16067,22 +16064,22 @@
         <v>826306</v>
       </c>
       <c r="G246" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I246" t="s">
         <v>1480</v>
       </c>
-      <c r="H246" t="s">
+      <c r="J246" t="s">
         <v>1481</v>
       </c>
-      <c r="I246" t="s">
+      <c r="K246" t="s">
         <v>1482</v>
       </c>
-      <c r="J246" t="s">
-        <v>1483</v>
-      </c>
-      <c r="K246" t="s">
-        <v>1484</v>
-      </c>
       <c r="L246" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M246" t="s">
         <v>20</v>
@@ -16090,7 +16087,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B247">
         <v>54800</v>
@@ -16108,22 +16105,22 @@
         <v>348654</v>
       </c>
       <c r="G247" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I247" t="s">
         <v>1486</v>
       </c>
-      <c r="H247" t="s">
+      <c r="J247" t="s">
         <v>1487</v>
       </c>
-      <c r="I247" t="s">
+      <c r="K247" t="s">
         <v>1488</v>
       </c>
-      <c r="J247" t="s">
-        <v>1489</v>
-      </c>
-      <c r="K247" t="s">
-        <v>1490</v>
-      </c>
       <c r="L247" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M247" t="s">
         <v>20</v>
@@ -16131,7 +16128,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B248">
         <v>39000</v>
@@ -16149,22 +16146,22 @@
         <v>692967</v>
       </c>
       <c r="G248" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1491</v>
+      </c>
+      <c r="I248" t="s">
         <v>1492</v>
       </c>
-      <c r="H248" t="s">
+      <c r="J248" t="s">
         <v>1493</v>
       </c>
-      <c r="I248" t="s">
+      <c r="K248" t="s">
         <v>1494</v>
       </c>
-      <c r="J248" t="s">
-        <v>1495</v>
-      </c>
-      <c r="K248" t="s">
-        <v>1496</v>
-      </c>
       <c r="L248" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M248" t="s">
         <v>20</v>
@@ -16172,7 +16169,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B249">
         <v>30200</v>
@@ -16190,22 +16187,22 @@
         <v>852303</v>
       </c>
       <c r="G249" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I249" t="s">
         <v>1498</v>
       </c>
-      <c r="H249" t="s">
+      <c r="J249" t="s">
         <v>1499</v>
       </c>
-      <c r="I249" t="s">
+      <c r="K249" t="s">
         <v>1500</v>
       </c>
-      <c r="J249" t="s">
-        <v>1501</v>
-      </c>
-      <c r="K249" t="s">
-        <v>1502</v>
-      </c>
       <c r="L249" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M249" t="s">
         <v>20</v>
@@ -16213,7 +16210,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B250">
         <v>142000</v>
@@ -16231,22 +16228,22 @@
         <v>2116613</v>
       </c>
       <c r="G250" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I250" t="s">
         <v>1504</v>
       </c>
-      <c r="H250" t="s">
+      <c r="J250" t="s">
         <v>1505</v>
       </c>
-      <c r="I250" t="s">
+      <c r="K250" t="s">
         <v>1506</v>
       </c>
-      <c r="J250" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K250" t="s">
-        <v>1508</v>
-      </c>
       <c r="L250" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M250" t="s">
         <v>20</v>
@@ -16254,7 +16251,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B251">
         <v>119000</v>
@@ -16272,22 +16269,22 @@
         <v>1129419</v>
       </c>
       <c r="G251" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I251" t="s">
         <v>1510</v>
       </c>
-      <c r="H251" t="s">
+      <c r="J251" t="s">
         <v>1511</v>
       </c>
-      <c r="I251" t="s">
+      <c r="K251" t="s">
         <v>1512</v>
       </c>
-      <c r="J251" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K251" t="s">
-        <v>1514</v>
-      </c>
       <c r="L251" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M251" t="s">
         <v>20</v>
@@ -16295,7 +16292,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B252">
         <v>36000</v>
@@ -16313,22 +16310,22 @@
         <v>572157</v>
       </c>
       <c r="G252" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I252" t="s">
         <v>1516</v>
       </c>
-      <c r="H252" t="s">
+      <c r="J252" t="s">
         <v>1517</v>
       </c>
-      <c r="I252" t="s">
+      <c r="K252" t="s">
         <v>1518</v>
       </c>
-      <c r="J252" t="s">
-        <v>1519</v>
-      </c>
-      <c r="K252" t="s">
-        <v>1520</v>
-      </c>
       <c r="L252" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M252" t="s">
         <v>20</v>
@@ -16336,7 +16333,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B253">
         <v>57900</v>
@@ -16354,22 +16351,22 @@
         <v>811738</v>
       </c>
       <c r="G253" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I253" t="s">
         <v>1522</v>
       </c>
-      <c r="H253" t="s">
+      <c r="J253" t="s">
         <v>1523</v>
       </c>
-      <c r="I253" t="s">
+      <c r="K253" t="s">
         <v>1524</v>
       </c>
-      <c r="J253" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K253" t="s">
-        <v>1526</v>
-      </c>
       <c r="L253" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M253" t="s">
         <v>20</v>
@@ -16377,7 +16374,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B254">
         <v>29300</v>
@@ -16395,22 +16392,22 @@
         <v>595547</v>
       </c>
       <c r="G254" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I254" t="s">
         <v>1528</v>
       </c>
-      <c r="H254" t="s">
+      <c r="J254" t="s">
         <v>1529</v>
       </c>
-      <c r="I254" t="s">
+      <c r="K254" t="s">
         <v>1530</v>
       </c>
-      <c r="J254" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K254" t="s">
-        <v>1532</v>
-      </c>
       <c r="L254" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M254" t="s">
         <v>20</v>
@@ -16418,7 +16415,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B255">
         <v>4040000</v>
@@ -16436,22 +16433,22 @@
         <v>22336485</v>
       </c>
       <c r="G255" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I255" t="s">
         <v>1534</v>
       </c>
-      <c r="H255" t="s">
+      <c r="J255" t="s">
         <v>1535</v>
       </c>
-      <c r="I255" t="s">
+      <c r="K255" t="s">
         <v>1536</v>
       </c>
-      <c r="J255" t="s">
+      <c r="L255" t="s">
         <v>1537</v>
-      </c>
-      <c r="K255" t="s">
-        <v>1538</v>
-      </c>
-      <c r="L255" t="s">
-        <v>1539</v>
       </c>
       <c r="M255" t="s">
         <v>20</v>
@@ -16459,7 +16456,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B256">
         <v>540000</v>
@@ -16477,22 +16474,22 @@
         <v>2408614</v>
       </c>
       <c r="G256" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I256" t="s">
         <v>1541</v>
       </c>
-      <c r="H256" t="s">
+      <c r="J256" t="s">
         <v>1542</v>
       </c>
-      <c r="I256" t="s">
+      <c r="K256" t="s">
         <v>1543</v>
       </c>
-      <c r="J256" t="s">
-        <v>1544</v>
-      </c>
-      <c r="K256" t="s">
-        <v>1545</v>
-      </c>
       <c r="L256" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M256" t="s">
         <v>20</v>
@@ -16500,7 +16497,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B257">
         <v>161000</v>
@@ -16518,22 +16515,22 @@
         <v>708787</v>
       </c>
       <c r="G257" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I257" t="s">
         <v>1547</v>
       </c>
-      <c r="H257" s="3" t="s">
+      <c r="J257" t="s">
         <v>1548</v>
       </c>
-      <c r="I257" t="s">
+      <c r="K257" t="s">
         <v>1549</v>
       </c>
-      <c r="J257" t="s">
-        <v>1550</v>
-      </c>
-      <c r="K257" t="s">
-        <v>1551</v>
-      </c>
       <c r="L257" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M257" t="s">
         <v>20</v>
@@ -16541,7 +16538,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B258">
         <v>202000</v>
@@ -16559,22 +16556,22 @@
         <v>367054</v>
       </c>
       <c r="G258" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I258" t="s">
         <v>1553</v>
       </c>
-      <c r="H258" t="s">
+      <c r="J258" t="s">
         <v>1554</v>
       </c>
-      <c r="I258" t="s">
+      <c r="K258" t="s">
         <v>1555</v>
       </c>
-      <c r="J258" t="s">
-        <v>1556</v>
-      </c>
-      <c r="K258" t="s">
-        <v>1557</v>
-      </c>
       <c r="L258" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M258" t="s">
         <v>20</v>
@@ -16582,7 +16579,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B259">
         <v>616000</v>
@@ -16600,22 +16597,22 @@
         <v>1008544</v>
       </c>
       <c r="G259" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I259" t="s">
         <v>1559</v>
       </c>
-      <c r="H259" t="s">
+      <c r="J259" t="s">
         <v>1560</v>
       </c>
-      <c r="I259" t="s">
+      <c r="K259" t="s">
         <v>1561</v>
       </c>
-      <c r="J259" t="s">
-        <v>1562</v>
-      </c>
-      <c r="K259" t="s">
-        <v>1563</v>
-      </c>
       <c r="L259" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M259" t="s">
         <v>20</v>
@@ -16623,7 +16620,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B260">
         <v>163000</v>
@@ -16641,22 +16638,22 @@
         <v>820444</v>
       </c>
       <c r="G260" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I260" t="s">
         <v>1565</v>
       </c>
-      <c r="H260" t="s">
+      <c r="J260" t="s">
         <v>1566</v>
       </c>
-      <c r="I260" t="s">
+      <c r="K260" t="s">
         <v>1567</v>
       </c>
-      <c r="J260" t="s">
-        <v>1568</v>
-      </c>
-      <c r="K260" t="s">
-        <v>1569</v>
-      </c>
       <c r="L260" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M260" t="s">
         <v>20</v>
@@ -16664,7 +16661,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B261">
         <v>5100000</v>
@@ -16682,22 +16679,22 @@
         <v>25616978</v>
       </c>
       <c r="G261" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I261" t="s">
         <v>1571</v>
       </c>
-      <c r="H261" t="s">
+      <c r="J261" t="s">
         <v>1572</v>
       </c>
-      <c r="I261" t="s">
+      <c r="K261" t="s">
         <v>1573</v>
       </c>
-      <c r="J261" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K261" t="s">
-        <v>1575</v>
-      </c>
       <c r="L261" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M261" t="s">
         <v>20</v>
@@ -16705,7 +16702,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B262">
         <v>292000</v>
@@ -16723,22 +16720,22 @@
         <v>1464136</v>
       </c>
       <c r="G262" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I262" t="s">
         <v>1577</v>
       </c>
-      <c r="H262" t="s">
+      <c r="J262" t="s">
         <v>1578</v>
       </c>
-      <c r="I262" t="s">
+      <c r="K262" t="s">
         <v>1579</v>
       </c>
-      <c r="J262" t="s">
-        <v>1580</v>
-      </c>
-      <c r="K262" t="s">
-        <v>1581</v>
-      </c>
       <c r="L262" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M262" t="s">
         <v>20</v>
@@ -16746,7 +16743,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B263">
         <v>824000</v>
@@ -16764,22 +16761,22 @@
         <v>3046694</v>
       </c>
       <c r="G263" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I263" t="s">
         <v>1583</v>
       </c>
-      <c r="H263" t="s">
+      <c r="J263" t="s">
         <v>1584</v>
       </c>
-      <c r="I263" t="s">
+      <c r="K263" t="s">
         <v>1585</v>
       </c>
-      <c r="J263" t="s">
-        <v>1586</v>
-      </c>
-      <c r="K263" t="s">
-        <v>1587</v>
-      </c>
       <c r="L263" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M263" t="s">
         <v>20</v>
@@ -16787,7 +16784,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B264">
         <v>253000</v>
@@ -16805,22 +16802,22 @@
         <v>772121</v>
       </c>
       <c r="G264" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I264" t="s">
         <v>1589</v>
       </c>
-      <c r="H264" t="s">
+      <c r="J264" t="s">
         <v>1590</v>
       </c>
-      <c r="I264" t="s">
+      <c r="K264" t="s">
         <v>1591</v>
       </c>
-      <c r="J264" t="s">
-        <v>1592</v>
-      </c>
-      <c r="K264" t="s">
-        <v>1593</v>
-      </c>
       <c r="L264" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M264" t="s">
         <v>20</v>
@@ -16828,7 +16825,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B265">
         <v>10000000</v>
@@ -16846,22 +16843,22 @@
         <v>24431664</v>
       </c>
       <c r="G265" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I265" t="s">
         <v>1595</v>
       </c>
-      <c r="H265" t="s">
+      <c r="J265" t="s">
         <v>1596</v>
       </c>
-      <c r="I265" t="s">
+      <c r="K265" t="s">
         <v>1597</v>
       </c>
-      <c r="J265" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K265" t="s">
-        <v>1599</v>
-      </c>
       <c r="L265" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M265" t="s">
         <v>20</v>
@@ -16869,7 +16866,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B266">
         <v>129000</v>
@@ -16887,22 +16884,22 @@
         <v>226665</v>
       </c>
       <c r="G266" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I266" t="s">
         <v>1601</v>
       </c>
-      <c r="H266" t="s">
+      <c r="J266" t="s">
         <v>1602</v>
       </c>
-      <c r="I266" t="s">
+      <c r="K266" t="s">
         <v>1603</v>
       </c>
-      <c r="J266" t="s">
-        <v>1604</v>
-      </c>
-      <c r="K266" t="s">
-        <v>1605</v>
-      </c>
       <c r="L266" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M266" t="s">
         <v>20</v>
@@ -16910,7 +16907,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B267">
         <v>7410000</v>
@@ -16928,22 +16925,22 @@
         <v>17573977</v>
       </c>
       <c r="G267" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I267" t="s">
         <v>1607</v>
       </c>
-      <c r="H267" t="s">
+      <c r="J267" t="s">
         <v>1608</v>
       </c>
-      <c r="I267" t="s">
+      <c r="K267" t="s">
         <v>1609</v>
       </c>
-      <c r="J267" t="s">
-        <v>1610</v>
-      </c>
-      <c r="K267" t="s">
-        <v>1611</v>
-      </c>
       <c r="L267" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M267" t="s">
         <v>20</v>
@@ -16951,7 +16948,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B268">
         <v>8970000</v>
@@ -16969,22 +16966,22 @@
         <v>37728811</v>
       </c>
       <c r="G268" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I268" t="s">
         <v>1613</v>
       </c>
-      <c r="H268" t="s">
+      <c r="J268" t="s">
         <v>1614</v>
       </c>
-      <c r="I268" t="s">
+      <c r="K268" t="s">
         <v>1615</v>
       </c>
-      <c r="J268" t="s">
-        <v>1616</v>
-      </c>
-      <c r="K268" t="s">
-        <v>1617</v>
-      </c>
       <c r="L268" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M268" t="s">
         <v>20</v>
@@ -16992,7 +16989,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B269">
         <v>648000</v>
@@ -17010,22 +17007,22 @@
         <v>2768220</v>
       </c>
       <c r="G269" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I269" t="s">
         <v>1619</v>
       </c>
-      <c r="H269" t="s">
+      <c r="J269" t="s">
         <v>1620</v>
       </c>
-      <c r="I269" t="s">
+      <c r="K269" t="s">
         <v>1621</v>
       </c>
-      <c r="J269" t="s">
-        <v>1622</v>
-      </c>
-      <c r="K269" t="s">
-        <v>1623</v>
-      </c>
       <c r="L269" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M269" t="s">
         <v>20</v>
@@ -17033,7 +17030,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B270">
         <v>186000</v>
@@ -17051,22 +17048,22 @@
         <v>674084</v>
       </c>
       <c r="G270" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I270" t="s">
         <v>1625</v>
       </c>
-      <c r="H270" t="s">
+      <c r="J270" t="s">
         <v>1626</v>
       </c>
-      <c r="I270" t="s">
+      <c r="K270" t="s">
         <v>1627</v>
       </c>
-      <c r="J270" t="s">
-        <v>1628</v>
-      </c>
-      <c r="K270" t="s">
-        <v>1629</v>
-      </c>
       <c r="L270" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M270" t="s">
         <v>20</v>
@@ -17074,7 +17071,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B271">
         <v>247000</v>
@@ -17092,22 +17089,22 @@
         <v>577195</v>
       </c>
       <c r="G271" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I271" t="s">
         <v>1631</v>
       </c>
-      <c r="H271" t="s">
+      <c r="J271" t="s">
         <v>1632</v>
       </c>
-      <c r="I271" t="s">
+      <c r="K271" t="s">
         <v>1633</v>
       </c>
-      <c r="J271" t="s">
-        <v>1634</v>
-      </c>
-      <c r="K271" t="s">
-        <v>1635</v>
-      </c>
       <c r="L271" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M271" t="s">
         <v>20</v>
@@ -17115,7 +17112,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B272">
         <v>3530000</v>
@@ -17133,22 +17130,22 @@
         <v>8876368</v>
       </c>
       <c r="G272" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I272" t="s">
         <v>1637</v>
       </c>
-      <c r="H272" t="s">
+      <c r="J272" t="s">
         <v>1638</v>
       </c>
-      <c r="I272" t="s">
+      <c r="K272" t="s">
         <v>1639</v>
       </c>
-      <c r="J272" t="s">
-        <v>1640</v>
-      </c>
-      <c r="K272" t="s">
-        <v>1641</v>
-      </c>
       <c r="L272" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M272" t="s">
         <v>20</v>
@@ -17156,7 +17153,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B273">
         <v>637000</v>
@@ -17174,22 +17171,22 @@
         <v>2726717</v>
       </c>
       <c r="G273" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I273" t="s">
         <v>1643</v>
       </c>
-      <c r="H273" t="s">
+      <c r="J273" t="s">
         <v>1644</v>
       </c>
-      <c r="I273" t="s">
+      <c r="K273" t="s">
         <v>1645</v>
       </c>
-      <c r="J273" t="s">
-        <v>1646</v>
-      </c>
-      <c r="K273" t="s">
-        <v>1647</v>
-      </c>
       <c r="L273" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M273" t="s">
         <v>20</v>
@@ -17197,7 +17194,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B274">
         <v>745000</v>
@@ -17215,22 +17212,22 @@
         <v>1262274</v>
       </c>
       <c r="G274" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I274" t="s">
         <v>1649</v>
       </c>
-      <c r="H274" t="s">
+      <c r="J274" t="s">
         <v>1650</v>
       </c>
-      <c r="I274" t="s">
+      <c r="K274" t="s">
         <v>1651</v>
       </c>
-      <c r="J274" t="s">
-        <v>1652</v>
-      </c>
-      <c r="K274" t="s">
-        <v>1653</v>
-      </c>
       <c r="L274" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="M274" t="s">
         <v>20</v>
@@ -17238,7 +17235,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B275">
         <v>1680000</v>
@@ -17256,22 +17253,22 @@
         <v>8554936</v>
       </c>
       <c r="G275" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I275" t="s">
         <v>1655</v>
       </c>
-      <c r="H275" t="s">
+      <c r="J275" t="s">
         <v>1656</v>
       </c>
-      <c r="I275" t="s">
+      <c r="K275" t="s">
         <v>1657</v>
       </c>
-      <c r="J275" t="s">
+      <c r="L275" t="s">
         <v>1658</v>
-      </c>
-      <c r="K275" t="s">
-        <v>1659</v>
-      </c>
-      <c r="L275" t="s">
-        <v>1660</v>
       </c>
       <c r="M275" t="s">
         <v>20</v>
@@ -17279,7 +17276,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B276">
         <v>13600</v>
@@ -17297,22 +17294,22 @@
         <v>33304</v>
       </c>
       <c r="G276" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I276" t="s">
         <v>1662</v>
       </c>
-      <c r="H276" t="s">
+      <c r="J276" t="s">
         <v>1663</v>
       </c>
-      <c r="I276" t="s">
+      <c r="K276" t="s">
         <v>1664</v>
       </c>
-      <c r="J276" t="s">
-        <v>1665</v>
-      </c>
-      <c r="K276" t="s">
-        <v>1666</v>
-      </c>
       <c r="L276" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M276" t="s">
         <v>20</v>
@@ -17320,7 +17317,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B277">
         <v>85600</v>
@@ -17338,22 +17335,22 @@
         <v>735863</v>
       </c>
       <c r="G277" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I277" t="s">
         <v>1668</v>
       </c>
-      <c r="H277" t="s">
+      <c r="J277" t="s">
         <v>1669</v>
       </c>
-      <c r="I277" t="s">
+      <c r="K277" t="s">
         <v>1670</v>
       </c>
-      <c r="J277" t="s">
-        <v>1671</v>
-      </c>
-      <c r="K277" t="s">
-        <v>1672</v>
-      </c>
       <c r="L277" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M277" t="s">
         <v>20</v>
@@ -17361,7 +17358,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B278">
         <v>2550000</v>
@@ -17379,22 +17376,22 @@
         <v>2334383</v>
       </c>
       <c r="G278" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I278" t="s">
         <v>1674</v>
       </c>
-      <c r="H278" t="s">
+      <c r="J278" t="s">
         <v>1675</v>
       </c>
-      <c r="I278" t="s">
+      <c r="K278" t="s">
         <v>1676</v>
       </c>
-      <c r="J278" t="s">
-        <v>1677</v>
-      </c>
-      <c r="K278" t="s">
-        <v>1678</v>
-      </c>
       <c r="L278" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M278" t="s">
         <v>20</v>
@@ -17402,7 +17399,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B279">
         <v>95800</v>
@@ -17420,22 +17417,22 @@
         <v>474346</v>
       </c>
       <c r="G279" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I279" t="s">
         <v>1680</v>
       </c>
-      <c r="H279" t="s">
+      <c r="J279" t="s">
         <v>1681</v>
       </c>
-      <c r="I279" t="s">
+      <c r="K279" t="s">
         <v>1682</v>
       </c>
-      <c r="J279" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K279" t="s">
-        <v>1684</v>
-      </c>
       <c r="L279" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M279" t="s">
         <v>20</v>
@@ -17443,7 +17440,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B280">
         <v>72200</v>
@@ -17461,22 +17458,22 @@
         <v>197233</v>
       </c>
       <c r="G280" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I280" t="s">
         <v>1686</v>
       </c>
-      <c r="H280" t="s">
+      <c r="J280" t="s">
         <v>1687</v>
       </c>
-      <c r="I280" t="s">
+      <c r="K280" t="s">
         <v>1688</v>
       </c>
-      <c r="J280" t="s">
-        <v>1689</v>
-      </c>
-      <c r="K280" t="s">
-        <v>1690</v>
-      </c>
       <c r="L280" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M280" t="s">
         <v>20</v>
@@ -17484,7 +17481,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B281">
         <v>59000</v>
@@ -17502,22 +17499,22 @@
         <v>390010</v>
       </c>
       <c r="G281" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I281" t="s">
         <v>1692</v>
       </c>
-      <c r="H281" t="s">
+      <c r="J281" t="s">
         <v>1693</v>
       </c>
-      <c r="I281" t="s">
+      <c r="K281" t="s">
         <v>1694</v>
       </c>
-      <c r="J281" t="s">
-        <v>1695</v>
-      </c>
-      <c r="K281" t="s">
-        <v>1696</v>
-      </c>
       <c r="L281" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M281" t="s">
         <v>20</v>
@@ -17525,7 +17522,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B282">
         <v>9870</v>
@@ -17543,22 +17540,22 @@
         <v>160865</v>
       </c>
       <c r="G282" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I282" t="s">
         <v>1698</v>
       </c>
-      <c r="H282" t="s">
+      <c r="J282" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="I282" t="s">
+      <c r="K282" t="s">
         <v>1700</v>
       </c>
-      <c r="J282" s="3" t="s">
-        <v>1701</v>
-      </c>
-      <c r="K282" t="s">
-        <v>1702</v>
-      </c>
       <c r="L282" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M282" t="s">
         <v>20</v>
@@ -17566,7 +17563,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B283">
         <v>7410</v>
@@ -17584,22 +17581,22 @@
         <v>52051</v>
       </c>
       <c r="G283" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I283" t="s">
         <v>1704</v>
       </c>
-      <c r="H283" t="s">
+      <c r="J283" t="s">
         <v>1705</v>
       </c>
-      <c r="I283" t="s">
+      <c r="K283" t="s">
         <v>1706</v>
       </c>
-      <c r="J283" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K283" t="s">
-        <v>1708</v>
-      </c>
       <c r="L283" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M283" t="s">
         <v>20</v>
@@ -17607,7 +17604,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B284">
         <v>47600</v>
@@ -17625,22 +17622,22 @@
         <v>395216</v>
       </c>
       <c r="G284" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I284" t="s">
         <v>1710</v>
       </c>
-      <c r="H284" t="s">
+      <c r="J284" t="s">
         <v>1711</v>
       </c>
-      <c r="I284" t="s">
+      <c r="K284" t="s">
         <v>1712</v>
       </c>
-      <c r="J284" t="s">
-        <v>1713</v>
-      </c>
-      <c r="K284" t="s">
-        <v>1714</v>
-      </c>
       <c r="L284" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M284" t="s">
         <v>20</v>
@@ -17648,7 +17645,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B285">
         <v>26500</v>
@@ -17666,22 +17663,22 @@
         <v>278930</v>
       </c>
       <c r="G285" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I285" t="s">
         <v>1716</v>
       </c>
-      <c r="H285" t="s">
+      <c r="J285" t="s">
         <v>1717</v>
       </c>
-      <c r="I285" t="s">
+      <c r="K285" t="s">
         <v>1718</v>
       </c>
-      <c r="J285" t="s">
-        <v>1719</v>
-      </c>
-      <c r="K285" t="s">
-        <v>1720</v>
-      </c>
       <c r="L285" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M285" t="s">
         <v>20</v>
@@ -17689,7 +17686,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B286">
         <v>1380000</v>
@@ -17707,22 +17704,22 @@
         <v>3033598</v>
       </c>
       <c r="G286" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I286" t="s">
         <v>1722</v>
       </c>
-      <c r="H286" t="s">
+      <c r="J286" t="s">
         <v>1723</v>
       </c>
-      <c r="I286" t="s">
+      <c r="K286" t="s">
         <v>1724</v>
       </c>
-      <c r="J286" t="s">
-        <v>1725</v>
-      </c>
-      <c r="K286" t="s">
-        <v>1726</v>
-      </c>
       <c r="L286" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M286" t="s">
         <v>20</v>
@@ -17730,7 +17727,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B287">
         <v>7820000</v>
@@ -17748,22 +17745,22 @@
         <v>10061776</v>
       </c>
       <c r="G287" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I287" t="s">
         <v>1728</v>
       </c>
-      <c r="H287" t="s">
+      <c r="J287" t="s">
         <v>1729</v>
       </c>
-      <c r="I287" t="s">
+      <c r="K287" t="s">
         <v>1730</v>
       </c>
-      <c r="J287" t="s">
-        <v>1731</v>
-      </c>
-      <c r="K287" t="s">
-        <v>1732</v>
-      </c>
       <c r="L287" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M287" t="s">
         <v>20</v>
@@ -17771,7 +17768,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B288">
         <v>117000</v>
@@ -17789,22 +17786,22 @@
         <v>684040</v>
       </c>
       <c r="G288" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I288" t="s">
         <v>1734</v>
       </c>
-      <c r="H288" t="s">
+      <c r="J288" t="s">
         <v>1735</v>
       </c>
-      <c r="I288" t="s">
+      <c r="K288" t="s">
         <v>1736</v>
       </c>
-      <c r="J288" t="s">
-        <v>1737</v>
-      </c>
-      <c r="K288" t="s">
-        <v>1738</v>
-      </c>
       <c r="L288" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M288" t="s">
         <v>20</v>
@@ -17812,7 +17809,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B289">
         <v>293000</v>
@@ -17830,22 +17827,22 @@
         <v>2122883</v>
       </c>
       <c r="G289" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I289" t="s">
         <v>1740</v>
       </c>
-      <c r="H289" t="s">
+      <c r="J289" t="s">
         <v>1741</v>
       </c>
-      <c r="I289" t="s">
+      <c r="K289" t="s">
         <v>1742</v>
       </c>
-      <c r="J289" t="s">
-        <v>1743</v>
-      </c>
-      <c r="K289" t="s">
-        <v>1744</v>
-      </c>
       <c r="L289" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M289" t="s">
         <v>20</v>
@@ -17853,7 +17850,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B290">
         <v>42500</v>
@@ -17871,22 +17868,22 @@
         <v>447182</v>
       </c>
       <c r="G290" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I290" t="s">
         <v>1746</v>
       </c>
-      <c r="H290" t="s">
+      <c r="J290" t="s">
         <v>1747</v>
       </c>
-      <c r="I290" t="s">
+      <c r="K290" t="s">
         <v>1748</v>
       </c>
-      <c r="J290" t="s">
-        <v>1749</v>
-      </c>
-      <c r="K290" t="s">
-        <v>1750</v>
-      </c>
       <c r="L290" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M290" t="s">
         <v>20</v>
@@ -17894,7 +17891,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B291">
         <v>30400</v>
@@ -17912,22 +17909,22 @@
         <v>319674</v>
       </c>
       <c r="G291" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I291" t="s">
         <v>1752</v>
       </c>
-      <c r="H291" t="s">
+      <c r="J291" t="s">
         <v>1753</v>
       </c>
-      <c r="I291" t="s">
+      <c r="K291" t="s">
         <v>1754</v>
       </c>
-      <c r="J291" t="s">
-        <v>1755</v>
-      </c>
-      <c r="K291" t="s">
-        <v>1756</v>
-      </c>
       <c r="L291" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M291" t="s">
         <v>20</v>
@@ -17935,7 +17932,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B292">
         <v>15300</v>
@@ -17953,22 +17950,22 @@
         <v>27587</v>
       </c>
       <c r="G292" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I292" t="s">
         <v>1758</v>
       </c>
-      <c r="H292" s="3" t="s">
+      <c r="J292" t="s">
         <v>1759</v>
       </c>
-      <c r="I292" t="s">
+      <c r="K292" t="s">
         <v>1760</v>
       </c>
-      <c r="J292" t="s">
-        <v>1761</v>
-      </c>
-      <c r="K292" t="s">
-        <v>1762</v>
-      </c>
       <c r="L292" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M292" t="s">
         <v>20</v>
@@ -17976,7 +17973,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B293">
         <v>19300</v>
@@ -17994,22 +17991,22 @@
         <v>54021</v>
       </c>
       <c r="G293" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I293" t="s">
         <v>1764</v>
       </c>
-      <c r="H293" t="s">
+      <c r="J293" t="s">
         <v>1765</v>
       </c>
-      <c r="I293" t="s">
+      <c r="K293" t="s">
         <v>1766</v>
       </c>
-      <c r="J293" t="s">
-        <v>1767</v>
-      </c>
-      <c r="K293" t="s">
-        <v>1768</v>
-      </c>
       <c r="L293" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M293" t="s">
         <v>20</v>
@@ -18017,7 +18014,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B294">
         <v>21300</v>
@@ -18035,22 +18032,22 @@
         <v>305198</v>
       </c>
       <c r="G294" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I294" t="s">
         <v>1770</v>
       </c>
-      <c r="H294" t="s">
+      <c r="J294" t="s">
         <v>1771</v>
       </c>
-      <c r="I294" t="s">
+      <c r="K294" t="s">
         <v>1772</v>
       </c>
-      <c r="J294" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K294" t="s">
-        <v>1774</v>
-      </c>
       <c r="L294" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="M294" t="s">
         <v>20</v>
@@ -18058,7 +18055,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B295">
         <v>3610</v>
@@ -18076,22 +18073,22 @@
         <v>67734</v>
       </c>
       <c r="G295" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I295" t="s">
         <v>1776</v>
       </c>
-      <c r="H295" t="s">
+      <c r="J295" t="s">
         <v>1777</v>
       </c>
-      <c r="I295" t="s">
+      <c r="K295" t="s">
         <v>1778</v>
       </c>
-      <c r="J295" t="s">
+      <c r="L295" t="s">
         <v>1779</v>
-      </c>
-      <c r="K295" t="s">
-        <v>1780</v>
-      </c>
-      <c r="L295" t="s">
-        <v>1781</v>
       </c>
       <c r="M295" s="2" t="s">
         <v>20</v>
@@ -18099,7 +18096,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B296">
         <v>11500</v>
@@ -18117,30 +18114,30 @@
         <v>130593</v>
       </c>
       <c r="G296" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I296" t="s">
         <v>1783</v>
       </c>
-      <c r="H296" t="s">
+      <c r="J296" t="s">
         <v>1784</v>
       </c>
-      <c r="I296" t="s">
+      <c r="K296" t="s">
         <v>1785</v>
       </c>
-      <c r="J296" t="s">
+      <c r="L296" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M296" s="2" t="s">
         <v>1786</v>
-      </c>
-      <c r="K296" t="s">
-        <v>1787</v>
-      </c>
-      <c r="L296" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M296" s="2" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B297">
         <v>2360</v>
@@ -18158,30 +18155,30 @@
         <v>54875</v>
       </c>
       <c r="G297" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I297" t="s">
         <v>1790</v>
       </c>
-      <c r="H297" s="3" t="s">
+      <c r="J297" s="3" t="s">
         <v>1791</v>
       </c>
-      <c r="I297" t="s">
+      <c r="K297" t="s">
         <v>1792</v>
       </c>
-      <c r="J297" s="3" t="s">
+      <c r="L297" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M297" s="2" t="s">
         <v>1793</v>
-      </c>
-      <c r="K297" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L297" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M297" s="2" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B298">
         <v>958</v>
@@ -18199,30 +18196,30 @@
         <v>55855</v>
       </c>
       <c r="G298" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I298" t="s">
         <v>1797</v>
       </c>
-      <c r="H298" t="s">
+      <c r="J298" t="s">
         <v>1798</v>
       </c>
-      <c r="I298" t="s">
+      <c r="K298" t="s">
         <v>1799</v>
       </c>
-      <c r="J298" t="s">
+      <c r="L298" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M298" s="2" t="s">
         <v>1800</v>
-      </c>
-      <c r="K298" t="s">
-        <v>1801</v>
-      </c>
-      <c r="L298" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M298" s="2" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B299">
         <v>25400</v>
@@ -18240,30 +18237,30 @@
         <v>141022</v>
       </c>
       <c r="G299" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I299" t="s">
         <v>1804</v>
       </c>
-      <c r="H299" t="s">
+      <c r="J299" t="s">
         <v>1805</v>
       </c>
-      <c r="I299" t="s">
+      <c r="K299" t="s">
         <v>1806</v>
       </c>
-      <c r="J299" t="s">
+      <c r="L299" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M299" s="2" t="s">
         <v>1807</v>
-      </c>
-      <c r="K299" t="s">
-        <v>1808</v>
-      </c>
-      <c r="L299" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M299" s="2" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B300">
         <v>51500</v>
@@ -18281,30 +18278,30 @@
         <v>128347</v>
       </c>
       <c r="G300" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I300" t="s">
         <v>1811</v>
       </c>
-      <c r="H300" t="s">
+      <c r="J300" t="s">
         <v>1812</v>
       </c>
-      <c r="I300" t="s">
+      <c r="K300" t="s">
         <v>1813</v>
       </c>
-      <c r="J300" t="s">
+      <c r="L300" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M300" s="2" t="s">
         <v>1814</v>
-      </c>
-      <c r="K300" t="s">
-        <v>1815</v>
-      </c>
-      <c r="L300" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M300" s="2" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B301">
         <v>6800</v>
@@ -18322,30 +18319,30 @@
         <v>123128</v>
       </c>
       <c r="G301" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I301" t="s">
         <v>1818</v>
       </c>
-      <c r="H301" t="s">
+      <c r="J301" t="s">
         <v>1819</v>
       </c>
-      <c r="I301" t="s">
+      <c r="K301" t="s">
         <v>1820</v>
       </c>
-      <c r="J301" t="s">
+      <c r="L301" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M301" s="2" t="s">
         <v>1821</v>
-      </c>
-      <c r="K301" t="s">
-        <v>1822</v>
-      </c>
-      <c r="L301" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M301" s="2" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B302">
         <v>5290</v>
@@ -18363,30 +18360,30 @@
         <v>112953</v>
       </c>
       <c r="G302" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I302" t="s">
         <v>1825</v>
       </c>
-      <c r="H302" t="s">
+      <c r="J302" t="s">
         <v>1826</v>
       </c>
-      <c r="I302" t="s">
+      <c r="K302" t="s">
         <v>1827</v>
       </c>
-      <c r="J302" t="s">
+      <c r="L302" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M302" s="2" t="s">
         <v>1828</v>
-      </c>
-      <c r="K302" t="s">
-        <v>1829</v>
-      </c>
-      <c r="L302" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M302" s="2" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B303">
         <v>8310</v>
@@ -18404,30 +18401,30 @@
         <v>98356</v>
       </c>
       <c r="G303" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I303" t="s">
         <v>1832</v>
       </c>
-      <c r="H303" t="s">
+      <c r="J303" t="s">
         <v>1833</v>
       </c>
-      <c r="I303" t="s">
+      <c r="K303" t="s">
         <v>1834</v>
       </c>
-      <c r="J303" t="s">
+      <c r="L303" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M303" s="2" t="s">
         <v>1835</v>
-      </c>
-      <c r="K303" t="s">
-        <v>1836</v>
-      </c>
-      <c r="L303" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M303" s="2" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B304">
         <v>4890</v>
@@ -18445,30 +18442,30 @@
         <v>103726</v>
       </c>
       <c r="G304" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1838</v>
+      </c>
+      <c r="I304" t="s">
         <v>1839</v>
       </c>
-      <c r="H304" t="s">
+      <c r="J304" t="s">
         <v>1840</v>
       </c>
-      <c r="I304" t="s">
+      <c r="K304" t="s">
         <v>1841</v>
       </c>
-      <c r="J304" t="s">
+      <c r="L304" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M304" s="2" t="s">
         <v>1842</v>
-      </c>
-      <c r="K304" t="s">
-        <v>1843</v>
-      </c>
-      <c r="L304" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M304" s="2" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B305">
         <v>5030</v>
@@ -18486,30 +18483,30 @@
         <v>114069</v>
       </c>
       <c r="G305" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I305" t="s">
         <v>1846</v>
       </c>
-      <c r="H305" t="s">
+      <c r="J305" t="s">
         <v>1847</v>
       </c>
-      <c r="I305" t="s">
+      <c r="K305" t="s">
         <v>1848</v>
       </c>
-      <c r="J305" t="s">
+      <c r="L305" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M305" s="2" t="s">
         <v>1849</v>
-      </c>
-      <c r="K305" t="s">
-        <v>1850</v>
-      </c>
-      <c r="L305" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M305" s="2" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="B306">
         <v>2560</v>
@@ -18527,25 +18524,25 @@
         <v>76072</v>
       </c>
       <c r="G306" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I306" t="s">
         <v>1853</v>
       </c>
-      <c r="H306" t="s">
+      <c r="J306" t="s">
         <v>1854</v>
       </c>
-      <c r="I306" t="s">
+      <c r="K306" t="s">
         <v>1855</v>
       </c>
-      <c r="J306" t="s">
+      <c r="L306" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M306" s="2" t="s">
         <v>1856</v>
-      </c>
-      <c r="K306" t="s">
-        <v>1857</v>
-      </c>
-      <c r="L306" t="s">
-        <v>1781</v>
-      </c>
-      <c r="M306" s="2" t="s">
-        <v>1858</v>
       </c>
     </row>
   </sheetData>
@@ -18565,7 +18562,9 @@
     <hyperlink ref="J72" r:id="rId12" xr:uid="{C6BC986A-3A52-425D-B265-12DA1AA8B013}"/>
     <hyperlink ref="G64" r:id="rId13" xr:uid="{F8CB8911-E244-456C-A459-520D6176FD02}"/>
     <hyperlink ref="H257" r:id="rId14" xr:uid="{CAE56DB1-21FA-4058-9C07-0F568AFADF8B}"/>
+    <hyperlink ref="H98" r:id="rId15" xr:uid="{A2426F63-4B56-40AC-AF32-F623A09A2197}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>